--- a/capiq_data/in_process_data/IQ31670.xlsx
+++ b/capiq_data/in_process_data/IQ31670.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\capiq_3\in_process_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\credit_rating_predictions-main\capiq_data\in_process_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA5ED069-788C-4A96-A67C-DCC7E5E06F69}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{803BD09D-E3F9-4632-9FD7-9F833F46A705}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4800" yWindow="98" windowWidth="14400" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="CIQWBGuid" hidden="1">"19c34aaa-2805-4f59-9d10-518d42b7c0ca"</definedName>
+    <definedName name="CIQWBGuid" hidden="1">"29065b0a-ce0e-4d70-90b7-9c86492c465a"</definedName>
     <definedName name="CIQWBInfo" hidden="1">"{ ""CIQVersion"":""9.45.614.5792"" }"</definedName>
     <definedName name="IQ_CH">110000</definedName>
     <definedName name="IQ_CQ">5000</definedName>
@@ -41,40 +41,40 @@
     <definedName name="IQ_LTMMONTH" hidden="1">120000</definedName>
     <definedName name="IQ_MONTH">15000</definedName>
     <definedName name="IQ_MTD" hidden="1">800000</definedName>
-    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44257.9003703704</definedName>
+    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44278.8607986111</definedName>
     <definedName name="IQ_NTM">6000</definedName>
     <definedName name="IQ_QTD" hidden="1">750000</definedName>
     <definedName name="IQ_TODAY" hidden="1">0</definedName>
     <definedName name="IQ_WEEK">50000</definedName>
     <definedName name="IQ_YTD">3000</definedName>
     <definedName name="IQ_YTDMONTH" hidden="1">130000</definedName>
-    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$42</definedName>
-    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$42</definedName>
-    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$42</definedName>
-    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$42</definedName>
-    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$42</definedName>
-    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$42</definedName>
-    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$42</definedName>
-    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$42</definedName>
-    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$42</definedName>
-    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$42</definedName>
-    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$42</definedName>
-    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$42</definedName>
-    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$42</definedName>
-    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$42</definedName>
-    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$42</definedName>
-    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$42</definedName>
-    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$42</definedName>
-    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$42</definedName>
-    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$42</definedName>
-    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$42</definedName>
-    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$42</definedName>
-    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$42</definedName>
-    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$42</definedName>
-    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$42</definedName>
-    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$42</definedName>
-    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$42</definedName>
-    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$42</definedName>
+    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$82</definedName>
+    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$82</definedName>
+    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$82</definedName>
+    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$82</definedName>
+    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$82</definedName>
+    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$82</definedName>
+    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$82</definedName>
+    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$82</definedName>
+    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$82</definedName>
+    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$82</definedName>
+    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$82</definedName>
+    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$82</definedName>
+    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$82</definedName>
+    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$82</definedName>
+    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$82</definedName>
+    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$82</definedName>
+    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$82</definedName>
+    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$82</definedName>
+    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$82</definedName>
+    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$82</definedName>
+    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$82</definedName>
+    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$82</definedName>
+    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$82</definedName>
+    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$82</definedName>
+    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$82</definedName>
+    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$82</definedName>
+    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$82</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -92,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>Date</t>
   </si>
@@ -173,6 +173,126 @@
   </si>
   <si>
     <t>IQ_NI</t>
+  </si>
+  <si>
+    <t>FQ42000</t>
+  </si>
+  <si>
+    <t>FQ12001</t>
+  </si>
+  <si>
+    <t>FQ22001</t>
+  </si>
+  <si>
+    <t>FQ32001</t>
+  </si>
+  <si>
+    <t>FQ42001</t>
+  </si>
+  <si>
+    <t>FQ12002</t>
+  </si>
+  <si>
+    <t>FQ22002</t>
+  </si>
+  <si>
+    <t>FQ32002</t>
+  </si>
+  <si>
+    <t>FQ42002</t>
+  </si>
+  <si>
+    <t>FQ12003</t>
+  </si>
+  <si>
+    <t>FQ22003</t>
+  </si>
+  <si>
+    <t>FQ32003</t>
+  </si>
+  <si>
+    <t>FQ42003</t>
+  </si>
+  <si>
+    <t>FQ12004</t>
+  </si>
+  <si>
+    <t>FQ22004</t>
+  </si>
+  <si>
+    <t>FQ32004</t>
+  </si>
+  <si>
+    <t>FQ42004</t>
+  </si>
+  <si>
+    <t>FQ12005</t>
+  </si>
+  <si>
+    <t>FQ22005</t>
+  </si>
+  <si>
+    <t>FQ32005</t>
+  </si>
+  <si>
+    <t>FQ42005</t>
+  </si>
+  <si>
+    <t>FQ12006</t>
+  </si>
+  <si>
+    <t>FQ22006</t>
+  </si>
+  <si>
+    <t>FQ32006</t>
+  </si>
+  <si>
+    <t>FQ42006</t>
+  </si>
+  <si>
+    <t>FQ12007</t>
+  </si>
+  <si>
+    <t>FQ22007</t>
+  </si>
+  <si>
+    <t>FQ32007</t>
+  </si>
+  <si>
+    <t>FQ42007</t>
+  </si>
+  <si>
+    <t>FQ12008</t>
+  </si>
+  <si>
+    <t>FQ22008</t>
+  </si>
+  <si>
+    <t>FQ32008</t>
+  </si>
+  <si>
+    <t>FQ42008</t>
+  </si>
+  <si>
+    <t>FQ12009</t>
+  </si>
+  <si>
+    <t>FQ22009</t>
+  </si>
+  <si>
+    <t>FQ32009</t>
+  </si>
+  <si>
+    <t>FQ42009</t>
+  </si>
+  <si>
+    <t>FQ12010</t>
+  </si>
+  <si>
+    <t>FQ22010</t>
+  </si>
+  <si>
+    <t>FQ32010</t>
   </si>
   <si>
     <t>FQ42010</t>
@@ -639,7 +759,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA42"/>
+  <dimension ref="A1:AA82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -733,37 +853,37 @@
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
-        <v>40543</v>
+        <v>36891</v>
       </c>
       <c r="B2" t="s">
         <v>27</v>
       </c>
       <c r="C2">
-        <v>45.758000000000003</v>
+        <v>39.262</v>
       </c>
       <c r="D2">
-        <v>1262.1980000000001</v>
+        <v>947.62900000000002</v>
       </c>
       <c r="E2">
-        <v>575.78399999999999</v>
+        <v>354.68400000000003</v>
       </c>
       <c r="F2">
-        <v>326.96300000000002</v>
+        <v>202.184</v>
       </c>
       <c r="G2">
-        <v>2248.6129999999998</v>
+        <v>1026.8510000000001</v>
       </c>
       <c r="H2">
-        <v>6098.9260000000004</v>
+        <v>1795.3779999999999</v>
       </c>
       <c r="I2">
-        <v>353.387</v>
+        <v>165.108</v>
       </c>
       <c r="J2">
-        <v>1302.9939999999999</v>
+        <v>365.43700000000001</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>42.895000000000003</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -772,120 +892,120 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1048.914</v>
+        <v>599.65899999999999</v>
       </c>
       <c r="O2">
-        <v>2791.9290000000001</v>
+        <v>1041.018</v>
       </c>
       <c r="P2">
-        <v>1653.5820000000001</v>
+        <v>632.72299999999996</v>
       </c>
       <c r="Q2">
-        <v>-11.618</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>40543</v>
+        <v>36891</v>
       </c>
       <c r="S2">
-        <v>26900</v>
+        <v>24005</v>
       </c>
       <c r="T2">
-        <v>3306.9969999999998</v>
+        <v>754.36</v>
       </c>
       <c r="U2">
-        <v>354.21699999999998</v>
+        <v>0</v>
       </c>
       <c r="V2">
-        <v>109.318</v>
+        <v>104.34099999999999</v>
       </c>
       <c r="W2">
         <v>0</v>
       </c>
       <c r="X2">
-        <v>-43.896000000000001</v>
+        <v>-47.56</v>
       </c>
       <c r="Y2">
         <v>0</v>
       </c>
       <c r="Z2">
-        <v>-79.917000000000002</v>
+        <v>0</v>
       </c>
       <c r="AA2">
-        <v>45.758000000000003</v>
+        <v>39.262</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
-        <v>40635</v>
+        <v>36981</v>
       </c>
       <c r="B3" t="s">
         <v>28</v>
       </c>
       <c r="C3">
-        <v>23.442</v>
+        <v>27.206</v>
       </c>
       <c r="D3">
-        <v>1343.595</v>
+        <v>777.33900000000006</v>
       </c>
       <c r="E3">
-        <v>712.16099999999994</v>
+        <v>386.02499999999998</v>
       </c>
       <c r="F3">
-        <v>347.93900000000002</v>
+        <v>177.322</v>
       </c>
       <c r="G3">
-        <v>2339.6750000000002</v>
+        <v>1098.6420000000001</v>
       </c>
       <c r="H3">
-        <v>6266.2330000000002</v>
+        <v>1858.2809999999999</v>
       </c>
       <c r="I3">
-        <v>396.77499999999998</v>
+        <v>197.435</v>
       </c>
       <c r="J3">
-        <v>1577.1880000000001</v>
+        <v>378.31</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>33.587000000000003</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>-9.3079999999999998</v>
       </c>
       <c r="M3">
-        <v>-631.11400000000003</v>
+        <v>-21.055</v>
       </c>
       <c r="N3">
-        <v>792.47400000000005</v>
+        <v>626.39099999999996</v>
       </c>
       <c r="O3">
-        <v>2819.6460000000002</v>
+        <v>1080.6469999999999</v>
       </c>
       <c r="P3">
-        <v>1629.894</v>
+        <v>615.53200000000004</v>
       </c>
       <c r="Q3">
-        <v>-97.986000000000004</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>40635</v>
+        <v>36981</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
       <c r="T3">
-        <v>3446.587</v>
+        <v>777.63400000000001</v>
       </c>
       <c r="U3">
-        <v>256.23099999999999</v>
+        <v>0</v>
       </c>
       <c r="V3">
-        <v>-67.412999999999997</v>
+        <v>32.200000000000003</v>
       </c>
       <c r="W3">
         <v>0</v>
       </c>
       <c r="X3">
-        <v>8.3919999999999995</v>
+        <v>-20.503</v>
       </c>
       <c r="Y3">
         <v>0</v>
@@ -894,42 +1014,42 @@
         <v>0</v>
       </c>
       <c r="AA3">
-        <v>23.442</v>
+        <v>27.206</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
-        <v>40726</v>
+        <v>37072</v>
       </c>
       <c r="B4" t="s">
         <v>29</v>
       </c>
       <c r="C4">
-        <v>60.902999999999999</v>
+        <v>46.466000000000001</v>
       </c>
       <c r="D4">
-        <v>1477.854</v>
+        <v>864.95799999999997</v>
       </c>
       <c r="E4">
-        <v>759.72199999999998</v>
+        <v>390.803</v>
       </c>
       <c r="F4">
-        <v>387.779</v>
+        <v>216.154</v>
       </c>
       <c r="G4">
-        <v>2447.2370000000001</v>
+        <v>1096.076</v>
       </c>
       <c r="H4">
-        <v>6389</v>
+        <v>1848.422</v>
       </c>
       <c r="I4">
-        <v>416.90899999999999</v>
+        <v>185.708</v>
       </c>
       <c r="J4">
-        <v>1155.1500000000001</v>
+        <v>319.45600000000002</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>30.576000000000001</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -938,37 +1058,37 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1224.482</v>
+        <v>628.90800000000002</v>
       </c>
       <c r="O4">
-        <v>2839.741</v>
+        <v>1024.953</v>
       </c>
       <c r="P4">
-        <v>1608.335</v>
+        <v>586.38</v>
       </c>
       <c r="Q4">
-        <v>29.190999999999999</v>
+        <v>0</v>
       </c>
       <c r="R4">
-        <v>40726</v>
+        <v>37072</v>
       </c>
       <c r="S4">
         <v>0</v>
       </c>
       <c r="T4">
-        <v>3549.259</v>
+        <v>823.46900000000005</v>
       </c>
       <c r="U4">
-        <v>285.42200000000003</v>
+        <v>0</v>
       </c>
       <c r="V4">
-        <v>96.003</v>
+        <v>45.976999999999997</v>
       </c>
       <c r="W4">
         <v>0</v>
       </c>
       <c r="X4">
-        <v>-11.805</v>
+        <v>-31.027000000000001</v>
       </c>
       <c r="Y4">
         <v>0</v>
@@ -977,42 +1097,42 @@
         <v>0</v>
       </c>
       <c r="AA4">
-        <v>60.902999999999999</v>
+        <v>46.466000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
-        <v>40817</v>
+        <v>37163</v>
       </c>
       <c r="B5" t="s">
         <v>30</v>
       </c>
       <c r="C5">
-        <v>46.646000000000001</v>
+        <v>55.726999999999997</v>
       </c>
       <c r="D5">
-        <v>1442.5119999999999</v>
+        <v>907.85</v>
       </c>
       <c r="E5">
-        <v>747.95399999999995</v>
+        <v>431.46300000000002</v>
       </c>
       <c r="F5">
-        <v>358.80799999999999</v>
+        <v>219.42400000000001</v>
       </c>
       <c r="G5">
-        <v>2440.5880000000002</v>
+        <v>1088.68</v>
       </c>
       <c r="H5">
-        <v>6277.5680000000002</v>
+        <v>1834.529</v>
       </c>
       <c r="I5">
-        <v>412.94600000000003</v>
+        <v>185.17</v>
       </c>
       <c r="J5">
-        <v>1173.038</v>
+        <v>219.571</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>33.822000000000003</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -1021,37 +1141,37 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1213.239</v>
+        <v>650.29</v>
       </c>
       <c r="O5">
-        <v>2826.0749999999998</v>
+        <v>950.47500000000002</v>
       </c>
       <c r="P5">
-        <v>1611.338</v>
+        <v>491.608</v>
       </c>
       <c r="Q5">
-        <v>-9.266</v>
+        <v>0</v>
       </c>
       <c r="R5">
-        <v>40817</v>
+        <v>37163</v>
       </c>
       <c r="S5">
         <v>0</v>
       </c>
       <c r="T5">
-        <v>3451.4929999999999</v>
+        <v>884.05399999999997</v>
       </c>
       <c r="U5">
-        <v>276.15600000000001</v>
+        <v>0</v>
       </c>
       <c r="V5">
-        <v>109.598</v>
+        <v>104.996</v>
       </c>
       <c r="W5">
         <v>0</v>
       </c>
       <c r="X5">
-        <v>-4.556</v>
+        <v>-90.69</v>
       </c>
       <c r="Y5">
         <v>0</v>
@@ -1060,42 +1180,42 @@
         <v>0</v>
       </c>
       <c r="AA5">
-        <v>46.646000000000001</v>
+        <v>55.726999999999997</v>
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
-        <v>40908</v>
+        <v>37256</v>
       </c>
       <c r="B6" t="s">
         <v>31</v>
       </c>
       <c r="C6">
-        <v>42.930999999999997</v>
+        <v>59.192999999999998</v>
       </c>
       <c r="D6">
-        <v>1378.297</v>
+        <v>895.798</v>
       </c>
       <c r="E6">
-        <v>653.15099999999995</v>
+        <v>399.83800000000002</v>
       </c>
       <c r="F6">
-        <v>339.899</v>
+        <v>220.00200000000001</v>
       </c>
       <c r="G6">
-        <v>2398.1640000000002</v>
+        <v>1031.222</v>
       </c>
       <c r="H6">
-        <v>6206.2280000000001</v>
+        <v>1768.4849999999999</v>
       </c>
       <c r="I6">
-        <v>372.61599999999999</v>
+        <v>171.62</v>
       </c>
       <c r="J6">
-        <v>1200.184</v>
+        <v>150.06700000000001</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>45.012</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -1104,37 +1224,37 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1101.346</v>
+        <v>581.86099999999999</v>
       </c>
       <c r="O6">
-        <v>2756.72</v>
+        <v>819.93399999999997</v>
       </c>
       <c r="P6">
-        <v>1586.4390000000001</v>
+        <v>353.44499999999999</v>
       </c>
       <c r="Q6">
-        <v>35.789000000000001</v>
+        <v>0</v>
       </c>
       <c r="R6">
-        <v>40908</v>
+        <v>37256</v>
       </c>
       <c r="S6">
-        <v>26200</v>
+        <v>31350</v>
       </c>
       <c r="T6">
-        <v>3449.5079999999998</v>
+        <v>948.55100000000004</v>
       </c>
       <c r="U6">
-        <v>311.94499999999999</v>
+        <v>0</v>
       </c>
       <c r="V6">
-        <v>162.80500000000001</v>
+        <v>148.07400000000001</v>
       </c>
       <c r="W6">
         <v>0</v>
       </c>
       <c r="X6">
-        <v>-25.155000000000001</v>
+        <v>-136.114</v>
       </c>
       <c r="Y6">
         <v>0</v>
@@ -1143,81 +1263,81 @@
         <v>0</v>
       </c>
       <c r="AA6">
-        <v>42.930999999999997</v>
+        <v>59.192999999999998</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
-        <v>40999</v>
+        <v>37345</v>
       </c>
       <c r="B7" t="s">
         <v>32</v>
       </c>
       <c r="C7">
-        <v>40.377000000000002</v>
+        <v>43.21</v>
       </c>
       <c r="D7">
-        <v>1409.0350000000001</v>
+        <v>866.71</v>
       </c>
       <c r="E7">
-        <v>753.73900000000003</v>
+        <v>569.95100000000002</v>
       </c>
       <c r="F7">
-        <v>359.42599999999999</v>
+        <v>215.37700000000001</v>
       </c>
       <c r="G7">
-        <v>2544.6280000000002</v>
+        <v>1420.7739999999999</v>
       </c>
       <c r="H7">
-        <v>6399.1940000000004</v>
+        <v>3697.0390000000002</v>
       </c>
       <c r="I7">
-        <v>398.84199999999998</v>
+        <v>263.53800000000001</v>
       </c>
       <c r="J7">
-        <v>1642.4190000000001</v>
+        <v>897.83100000000002</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>36.997</v>
       </c>
       <c r="L7">
-        <v>-10.255000000000001</v>
+        <v>-9.6210000000000004</v>
       </c>
       <c r="M7">
-        <v>-330.38400000000001</v>
+        <v>-127.982</v>
       </c>
       <c r="N7">
-        <v>778.69200000000001</v>
+        <v>839.20600000000002</v>
       </c>
       <c r="O7">
-        <v>2879.8969999999999</v>
+        <v>1909.2919999999999</v>
       </c>
       <c r="P7">
-        <v>1699.7280000000001</v>
+        <v>1188.194</v>
       </c>
       <c r="Q7">
-        <v>-7.17</v>
+        <v>0</v>
       </c>
       <c r="R7">
-        <v>40999</v>
+        <v>37345</v>
       </c>
       <c r="S7">
         <v>0</v>
       </c>
       <c r="T7">
-        <v>3519.297</v>
+        <v>1787.7470000000001</v>
       </c>
       <c r="U7">
-        <v>304.77499999999998</v>
+        <v>0</v>
       </c>
       <c r="V7">
-        <v>-44.47</v>
+        <v>61.71</v>
       </c>
       <c r="W7">
         <v>0</v>
       </c>
       <c r="X7">
-        <v>71.959000000000003</v>
+        <v>671.95600000000002</v>
       </c>
       <c r="Y7">
         <v>0</v>
@@ -1226,42 +1346,42 @@
         <v>0</v>
       </c>
       <c r="AA7">
-        <v>40.377000000000002</v>
+        <v>43.21</v>
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
-        <v>41090</v>
+        <v>37436</v>
       </c>
       <c r="B8" t="s">
         <v>33</v>
       </c>
       <c r="C8">
-        <v>73.188000000000002</v>
+        <v>75.518000000000001</v>
       </c>
       <c r="D8">
-        <v>1469.7929999999999</v>
+        <v>1227.7470000000001</v>
       </c>
       <c r="E8">
-        <v>752.03200000000004</v>
+        <v>575.35400000000004</v>
       </c>
       <c r="F8">
-        <v>395.1</v>
+        <v>339.90499999999997</v>
       </c>
       <c r="G8">
-        <v>2534.1860000000001</v>
+        <v>1413.3240000000001</v>
       </c>
       <c r="H8">
-        <v>6264.777</v>
+        <v>3698.625</v>
       </c>
       <c r="I8">
-        <v>381.50299999999999</v>
+        <v>280.64100000000002</v>
       </c>
       <c r="J8">
-        <v>1570.53</v>
+        <v>912.38400000000001</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>59.000999999999998</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -1270,81 +1390,81 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>790.56899999999996</v>
+        <v>742.57299999999998</v>
       </c>
       <c r="O8">
-        <v>2788.4589999999998</v>
+        <v>1830.2829999999999</v>
       </c>
       <c r="P8">
-        <v>1627.6880000000001</v>
+        <v>1079.751</v>
       </c>
       <c r="Q8">
-        <v>14.688000000000001</v>
+        <v>0</v>
       </c>
       <c r="R8">
-        <v>41090</v>
+        <v>37436</v>
       </c>
       <c r="S8">
         <v>0</v>
       </c>
       <c r="T8">
-        <v>3476.3180000000002</v>
+        <v>1868.3420000000001</v>
       </c>
       <c r="U8">
-        <v>319.46300000000002</v>
+        <v>0</v>
       </c>
       <c r="V8">
-        <v>140.04599999999999</v>
+        <v>130.21299999999999</v>
       </c>
       <c r="W8">
         <v>0</v>
       </c>
       <c r="X8">
-        <v>-58.776000000000003</v>
+        <v>-98.998999999999995</v>
       </c>
       <c r="Y8">
         <v>0</v>
       </c>
       <c r="Z8">
-        <v>-7.0069999999999997</v>
+        <v>0</v>
       </c>
       <c r="AA8">
-        <v>73.188000000000002</v>
+        <v>75.518000000000001</v>
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
-        <v>41181</v>
+        <v>37527</v>
       </c>
       <c r="B9" t="s">
         <v>34</v>
       </c>
       <c r="C9">
-        <v>70.304000000000002</v>
+        <v>81.56</v>
       </c>
       <c r="D9">
-        <v>1473.4929999999999</v>
+        <v>1224.403</v>
       </c>
       <c r="E9">
-        <v>761.76599999999996</v>
+        <v>565.28200000000004</v>
       </c>
       <c r="F9">
-        <v>375.82100000000003</v>
+        <v>341.40300000000002</v>
       </c>
       <c r="G9">
-        <v>2596.7289999999998</v>
+        <v>1418.002</v>
       </c>
       <c r="H9">
-        <v>6302.6120000000001</v>
+        <v>3705.1529999999998</v>
       </c>
       <c r="I9">
-        <v>397.86500000000001</v>
+        <v>282.23500000000001</v>
       </c>
       <c r="J9">
-        <v>1467.269</v>
+        <v>903.10400000000004</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>49.500999999999998</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -1353,37 +1473,37 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>818.85900000000004</v>
+        <v>723.66499999999996</v>
       </c>
       <c r="O9">
-        <v>2707.6770000000001</v>
+        <v>1807.6590000000001</v>
       </c>
       <c r="P9">
-        <v>1524.942</v>
+        <v>994.971</v>
       </c>
       <c r="Q9">
-        <v>61.378999999999998</v>
+        <v>0</v>
       </c>
       <c r="R9">
-        <v>41181</v>
+        <v>37527</v>
       </c>
       <c r="S9">
         <v>0</v>
       </c>
       <c r="T9">
-        <v>3594.9349999999999</v>
+        <v>1897.4939999999999</v>
       </c>
       <c r="U9">
-        <v>380.84199999999998</v>
+        <v>0</v>
       </c>
       <c r="V9">
-        <v>202.971</v>
+        <v>163.065</v>
       </c>
       <c r="W9">
         <v>0</v>
       </c>
       <c r="X9">
-        <v>-100.875</v>
+        <v>-136.23500000000001</v>
       </c>
       <c r="Y9">
         <v>0</v>
@@ -1392,42 +1512,42 @@
         <v>0</v>
       </c>
       <c r="AA9">
-        <v>70.304000000000002</v>
+        <v>81.56</v>
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
-        <v>41274</v>
+        <v>37621</v>
       </c>
       <c r="B10" t="s">
         <v>35</v>
       </c>
       <c r="C10">
-        <v>66.388999999999996</v>
+        <v>84.200999999999993</v>
       </c>
       <c r="D10">
-        <v>1435.6590000000001</v>
+        <v>1203.4760000000001</v>
       </c>
       <c r="E10">
-        <v>653.67999999999995</v>
+        <v>493.75599999999997</v>
       </c>
       <c r="F10">
-        <v>374.52699999999999</v>
+        <v>343.38099999999997</v>
       </c>
       <c r="G10">
-        <v>2550.0459999999998</v>
+        <v>1298.579</v>
       </c>
       <c r="H10">
-        <v>6303.6840000000002</v>
+        <v>3596.7429999999999</v>
       </c>
       <c r="I10">
-        <v>387.87099999999998</v>
+        <v>236.27199999999999</v>
       </c>
       <c r="J10">
-        <v>1327.729</v>
+        <v>793</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>23.504000000000001</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -1436,37 +1556,37 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>828.649</v>
+        <v>657.73299999999995</v>
       </c>
       <c r="O10">
-        <v>2584.067</v>
+        <v>1613.864</v>
       </c>
       <c r="P10">
-        <v>1382.942</v>
+        <v>843.93100000000004</v>
       </c>
       <c r="Q10">
-        <v>96.83</v>
+        <v>0</v>
       </c>
       <c r="R10">
-        <v>41274</v>
+        <v>37621</v>
       </c>
       <c r="S10">
-        <v>25100</v>
+        <v>31780</v>
       </c>
       <c r="T10">
-        <v>3719.6170000000002</v>
+        <v>1982.8789999999999</v>
       </c>
       <c r="U10">
-        <v>477.67200000000003</v>
+        <v>0</v>
       </c>
       <c r="V10">
-        <v>289.04300000000001</v>
+        <v>194.52199999999999</v>
       </c>
       <c r="W10">
         <v>0</v>
       </c>
       <c r="X10">
-        <v>-129.13900000000001</v>
+        <v>-156.66</v>
       </c>
       <c r="Y10">
         <v>0</v>
@@ -1475,81 +1595,81 @@
         <v>0</v>
       </c>
       <c r="AA10">
-        <v>66.388999999999996</v>
+        <v>84.200999999999993</v>
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
-        <v>41363</v>
+        <v>37709</v>
       </c>
       <c r="B11" t="s">
         <v>36</v>
       </c>
       <c r="C11">
-        <v>50.494999999999997</v>
+        <v>41.64</v>
       </c>
       <c r="D11">
-        <v>1486.8150000000001</v>
+        <v>1084.7149999999999</v>
       </c>
       <c r="E11">
-        <v>801.89400000000001</v>
+        <v>536.875</v>
       </c>
       <c r="F11">
-        <v>380.47699999999998</v>
+        <v>274.79599999999999</v>
       </c>
       <c r="G11">
-        <v>3446.6060000000002</v>
+        <v>1421.682</v>
       </c>
       <c r="H11">
-        <v>7261.8450000000003</v>
+        <v>3712.6590000000001</v>
       </c>
       <c r="I11">
-        <v>459.39699999999999</v>
+        <v>324.70800000000003</v>
       </c>
       <c r="J11">
-        <v>2253.02</v>
+        <v>789.428</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>23.195</v>
       </c>
       <c r="L11">
-        <v>-8.0690000000000008</v>
+        <v>-3.4009999999999998</v>
       </c>
       <c r="M11">
-        <v>-539.03899999999999</v>
+        <v>-0.17100000000000001</v>
       </c>
       <c r="N11">
-        <v>877.63099999999997</v>
+        <v>712.09100000000001</v>
       </c>
       <c r="O11">
-        <v>3537.261</v>
+        <v>1708.355</v>
       </c>
       <c r="P11">
-        <v>2306.5160000000001</v>
+        <v>840.05</v>
       </c>
       <c r="Q11">
-        <v>642.495</v>
+        <v>0</v>
       </c>
       <c r="R11">
-        <v>41363</v>
+        <v>37709</v>
       </c>
       <c r="S11">
         <v>0</v>
       </c>
       <c r="T11">
-        <v>3724.5839999999998</v>
+        <v>2004.3040000000001</v>
       </c>
       <c r="U11">
-        <v>1120.1669999999999</v>
+        <v>0</v>
       </c>
       <c r="V11">
-        <v>-38.944000000000003</v>
+        <v>26.728000000000002</v>
       </c>
       <c r="W11">
         <v>0</v>
       </c>
       <c r="X11">
-        <v>937.97500000000002</v>
+        <v>-2.0640000000000001</v>
       </c>
       <c r="Y11">
         <v>0</v>
@@ -1558,42 +1678,42 @@
         <v>0</v>
       </c>
       <c r="AA11">
-        <v>50.494999999999997</v>
+        <v>41.64</v>
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
-        <v>41454</v>
+        <v>37800</v>
       </c>
       <c r="B12" t="s">
         <v>37</v>
       </c>
       <c r="C12">
-        <v>84.572000000000003</v>
+        <v>74.984999999999999</v>
       </c>
       <c r="D12">
-        <v>1976.299</v>
+        <v>1247.181</v>
       </c>
       <c r="E12">
-        <v>1086.2560000000001</v>
+        <v>575.21600000000001</v>
       </c>
       <c r="F12">
-        <v>547.13400000000001</v>
+        <v>340.10300000000001</v>
       </c>
       <c r="G12">
-        <v>3270.1950000000002</v>
+        <v>1496.9749999999999</v>
       </c>
       <c r="H12">
-        <v>8508.9639999999999</v>
+        <v>3797.2860000000001</v>
       </c>
       <c r="I12">
-        <v>729.03399999999999</v>
+        <v>316.21899999999999</v>
       </c>
       <c r="J12">
-        <v>2450.5839999999998</v>
+        <v>733.84400000000005</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>41.204000000000001</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -1602,37 +1722,37 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>1344.962</v>
+        <v>775.78</v>
       </c>
       <c r="O12">
-        <v>4404.6710000000003</v>
+        <v>1717.9549999999999</v>
       </c>
       <c r="P12">
-        <v>2533.7550000000001</v>
+        <v>885.952</v>
       </c>
       <c r="Q12">
-        <v>-951.42200000000003</v>
+        <v>0</v>
       </c>
       <c r="R12">
-        <v>41454</v>
+        <v>37800</v>
       </c>
       <c r="S12">
         <v>0</v>
       </c>
       <c r="T12">
-        <v>4104.2929999999997</v>
+        <v>2079.3310000000001</v>
       </c>
       <c r="U12">
-        <v>168.745</v>
+        <v>0</v>
       </c>
       <c r="V12">
-        <v>152.858</v>
+        <v>24.404</v>
       </c>
       <c r="W12">
         <v>0</v>
       </c>
       <c r="X12">
-        <v>-730.32899999999995</v>
+        <v>20.565000000000001</v>
       </c>
       <c r="Y12">
         <v>0</v>
@@ -1641,42 +1761,42 @@
         <v>0</v>
       </c>
       <c r="AA12">
-        <v>84.572000000000003</v>
+        <v>74.984999999999999</v>
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
-        <v>41545</v>
+        <v>37891</v>
       </c>
       <c r="B13" t="s">
         <v>38</v>
       </c>
       <c r="C13">
-        <v>119.068</v>
+        <v>91.382000000000005</v>
       </c>
       <c r="D13">
-        <v>1961.5360000000001</v>
+        <v>1303.1659999999999</v>
       </c>
       <c r="E13">
-        <v>1085.375</v>
+        <v>598.73</v>
       </c>
       <c r="F13">
-        <v>543.88599999999997</v>
+        <v>364.88600000000002</v>
       </c>
       <c r="G13">
-        <v>3188.4630000000002</v>
+        <v>1561.3779999999999</v>
       </c>
       <c r="H13">
-        <v>8564.1569999999992</v>
+        <v>3878.4349999999999</v>
       </c>
       <c r="I13">
-        <v>727.77</v>
+        <v>308.95400000000001</v>
       </c>
       <c r="J13">
-        <v>2257.3910000000001</v>
+        <v>762.80100000000004</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>40.509</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -1685,37 +1805,37 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>1385.223</v>
+        <v>714.99300000000005</v>
       </c>
       <c r="O13">
-        <v>4230.5240000000003</v>
+        <v>1687.8389999999999</v>
       </c>
       <c r="P13">
-        <v>2346.422</v>
+        <v>829.30799999999999</v>
       </c>
       <c r="Q13">
-        <v>-105.16500000000001</v>
+        <v>16.36</v>
       </c>
       <c r="R13">
-        <v>41545</v>
+        <v>37891</v>
       </c>
       <c r="S13">
         <v>0</v>
       </c>
       <c r="T13">
-        <v>4333.6329999999998</v>
+        <v>2190.596</v>
       </c>
       <c r="U13">
-        <v>63.58</v>
+        <v>16.36</v>
       </c>
       <c r="V13">
-        <v>213.059</v>
+        <v>101.31100000000001</v>
       </c>
       <c r="W13">
         <v>0</v>
       </c>
       <c r="X13">
-        <v>-211.529</v>
+        <v>-44.953000000000003</v>
       </c>
       <c r="Y13">
         <v>0</v>
@@ -1724,42 +1844,42 @@
         <v>0</v>
       </c>
       <c r="AA13">
-        <v>119.068</v>
+        <v>91.382000000000005</v>
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
-        <v>41639</v>
+        <v>37986</v>
       </c>
       <c r="B14" t="s">
         <v>39</v>
       </c>
       <c r="C14">
-        <v>0</v>
+        <v>102.142</v>
       </c>
       <c r="D14">
-        <v>0</v>
+        <v>1364.319</v>
       </c>
       <c r="E14">
-        <v>999.78700000000003</v>
+        <v>568.85199999999998</v>
       </c>
       <c r="F14">
-        <v>0</v>
+        <v>414.017</v>
       </c>
       <c r="G14">
-        <v>3085.7179999999998</v>
+        <v>1533.2180000000001</v>
       </c>
       <c r="H14">
-        <v>8494.1769999999997</v>
+        <v>4163.5749999999998</v>
       </c>
       <c r="I14">
-        <v>631.73199999999997</v>
+        <v>245.74600000000001</v>
       </c>
       <c r="J14">
-        <v>2132.79</v>
+        <v>709.44500000000005</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>30.428999999999998</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1768,37 +1888,37 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>1320.8109999999999</v>
+        <v>940.90800000000002</v>
       </c>
       <c r="O14">
-        <v>4023.8710000000001</v>
+        <v>1865.7739999999999</v>
       </c>
       <c r="P14">
-        <v>2260.0079999999998</v>
+        <v>1042.8420000000001</v>
       </c>
       <c r="Q14">
-        <v>0</v>
+        <v>-16.36</v>
       </c>
       <c r="R14">
-        <v>41639</v>
+        <v>37986</v>
       </c>
       <c r="S14">
-        <v>32100</v>
+        <v>33300</v>
       </c>
       <c r="T14">
-        <v>4470.3059999999996</v>
+        <v>2297.8009999999999</v>
       </c>
       <c r="U14">
-        <v>54.066000000000003</v>
+        <v>0</v>
       </c>
       <c r="V14">
-        <v>0</v>
+        <v>156.947</v>
       </c>
       <c r="W14">
         <v>0</v>
       </c>
       <c r="X14">
-        <v>0</v>
+        <v>215.81399999999999</v>
       </c>
       <c r="Y14">
         <v>0</v>
@@ -1807,81 +1927,81 @@
         <v>0</v>
       </c>
       <c r="AA14">
-        <v>0</v>
+        <v>102.142</v>
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
-        <v>41727</v>
+        <v>38080</v>
       </c>
       <c r="B15" t="s">
         <v>40</v>
       </c>
       <c r="C15">
-        <v>81.081000000000003</v>
+        <v>66.307000000000002</v>
       </c>
       <c r="D15">
-        <v>1813.095</v>
+        <v>1389.7249999999999</v>
       </c>
       <c r="E15">
-        <v>1112.0450000000001</v>
+        <v>661.01900000000001</v>
       </c>
       <c r="F15">
-        <v>486.99200000000002</v>
+        <v>365.54599999999999</v>
       </c>
       <c r="G15">
-        <v>3263.2739999999999</v>
+        <v>1692.4829999999999</v>
       </c>
       <c r="H15">
-        <v>8681.4879999999994</v>
+        <v>4302.2479999999996</v>
       </c>
       <c r="I15">
-        <v>697.36599999999999</v>
+        <v>308.72399999999999</v>
       </c>
       <c r="J15">
-        <v>1811.789</v>
+        <v>763.60500000000002</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>45.802</v>
       </c>
       <c r="L15">
-        <v>-287.48500000000001</v>
+        <v>-20.707999999999998</v>
       </c>
       <c r="M15">
-        <v>-1075.5309999999999</v>
+        <v>-1.2E-2</v>
       </c>
       <c r="N15">
-        <v>1843.5150000000001</v>
+        <v>949.33</v>
       </c>
       <c r="O15">
-        <v>4188.0439999999999</v>
+        <v>1928.461</v>
       </c>
       <c r="P15">
-        <v>2466.66</v>
+        <v>1045.4949999999999</v>
       </c>
       <c r="Q15">
-        <v>18.579000000000001</v>
+        <v>0</v>
       </c>
       <c r="R15">
-        <v>41727</v>
+        <v>38080</v>
       </c>
       <c r="S15">
         <v>0</v>
       </c>
       <c r="T15">
-        <v>4493.4440000000004</v>
+        <v>2373.7869999999998</v>
       </c>
       <c r="U15">
-        <v>72.644999999999996</v>
+        <v>0</v>
       </c>
       <c r="V15">
-        <v>-71.006</v>
+        <v>3.2610000000000001</v>
       </c>
       <c r="W15">
         <v>0</v>
       </c>
       <c r="X15">
-        <v>213.04300000000001</v>
+        <v>9.9060000000000006</v>
       </c>
       <c r="Y15">
         <v>0</v>
@@ -1890,42 +2010,42 @@
         <v>0</v>
       </c>
       <c r="AA15">
-        <v>81.081000000000003</v>
+        <v>66.307000000000002</v>
       </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
-        <v>41818</v>
+        <v>38171</v>
       </c>
       <c r="B16" t="s">
         <v>41</v>
       </c>
       <c r="C16">
-        <v>152.75</v>
+        <v>87.158000000000001</v>
       </c>
       <c r="D16">
-        <v>2048.2469999999998</v>
+        <v>1485.8969999999999</v>
       </c>
       <c r="E16">
-        <v>1197.627</v>
+        <v>693.67899999999997</v>
       </c>
       <c r="F16">
-        <v>581.56700000000001</v>
+        <v>403.31900000000002</v>
       </c>
       <c r="G16">
-        <v>3379.0889999999999</v>
+        <v>1752.944</v>
       </c>
       <c r="H16">
-        <v>8881.6810000000005</v>
+        <v>4368.07</v>
       </c>
       <c r="I16">
-        <v>711.80700000000002</v>
+        <v>324.94499999999999</v>
       </c>
       <c r="J16">
-        <v>1807.6089999999999</v>
+        <v>709.42499999999995</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>53.677999999999997</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1934,37 +2054,37 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>1872.52</v>
+        <v>989.53300000000002</v>
       </c>
       <c r="O16">
-        <v>4208.3810000000003</v>
+        <v>1912.87</v>
       </c>
       <c r="P16">
-        <v>2426.8380000000002</v>
+        <v>1037.5619999999999</v>
       </c>
       <c r="Q16">
-        <v>-2.601</v>
+        <v>0</v>
       </c>
       <c r="R16">
-        <v>41818</v>
+        <v>38171</v>
       </c>
       <c r="S16">
         <v>0</v>
       </c>
       <c r="T16">
-        <v>4673.3</v>
+        <v>2455.1999999999998</v>
       </c>
       <c r="U16">
-        <v>70.043999999999997</v>
+        <v>0</v>
       </c>
       <c r="V16">
-        <v>168.88</v>
+        <v>54.420999999999999</v>
       </c>
       <c r="W16">
         <v>0</v>
       </c>
       <c r="X16">
-        <v>-44.68</v>
+        <v>-13.916</v>
       </c>
       <c r="Y16">
         <v>0</v>
@@ -1973,39 +2093,39 @@
         <v>0</v>
       </c>
       <c r="AA16">
-        <v>152.75</v>
+        <v>87.158000000000001</v>
       </c>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
-        <v>41909</v>
+        <v>38262</v>
       </c>
       <c r="B17" t="s">
         <v>42</v>
       </c>
       <c r="C17">
-        <v>151.26599999999999</v>
+        <v>112.687</v>
       </c>
       <c r="D17">
-        <v>1990.6579999999999</v>
+        <v>1529.6510000000001</v>
       </c>
       <c r="E17">
-        <v>1148.56</v>
+        <v>711.75300000000004</v>
       </c>
       <c r="F17">
-        <v>563.68299999999999</v>
+        <v>436.053</v>
       </c>
       <c r="G17">
-        <v>3368.8139999999999</v>
+        <v>1844.0609999999999</v>
       </c>
       <c r="H17">
-        <v>8701.4599999999991</v>
+        <v>4459.17</v>
       </c>
       <c r="I17">
-        <v>715.09900000000005</v>
+        <v>351.30700000000002</v>
       </c>
       <c r="J17">
-        <v>1806.8209999999999</v>
+        <v>700.00900000000001</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -2017,37 +2137,37 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>1831.357</v>
+        <v>986.39499999999998</v>
       </c>
       <c r="O17">
-        <v>4124.942</v>
+        <v>1900.0719999999999</v>
       </c>
       <c r="P17">
-        <v>2390.3159999999998</v>
+        <v>907.32399999999996</v>
       </c>
       <c r="Q17">
-        <v>35.524999999999999</v>
+        <v>0</v>
       </c>
       <c r="R17">
-        <v>41909</v>
+        <v>38262</v>
       </c>
       <c r="S17">
         <v>0</v>
       </c>
       <c r="T17">
-        <v>4576.518</v>
+        <v>2559.098</v>
       </c>
       <c r="U17">
-        <v>105.569</v>
+        <v>0</v>
       </c>
       <c r="V17">
-        <v>225.54900000000001</v>
+        <v>138.35599999999999</v>
       </c>
       <c r="W17">
         <v>0</v>
       </c>
       <c r="X17">
-        <v>-41.776000000000003</v>
+        <v>-106.648</v>
       </c>
       <c r="Y17">
         <v>0</v>
@@ -2056,42 +2176,42 @@
         <v>0</v>
       </c>
       <c r="AA17">
-        <v>151.26599999999999</v>
+        <v>112.687</v>
       </c>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
-        <v>42004</v>
+        <v>38352</v>
       </c>
       <c r="B18" t="s">
         <v>43</v>
       </c>
       <c r="C18">
-        <v>146.86799999999999</v>
+        <v>102.47</v>
       </c>
       <c r="D18">
-        <v>1951.4459999999999</v>
+        <v>1475.0989999999999</v>
       </c>
       <c r="E18">
-        <v>1008.89</v>
+        <v>650.92999999999995</v>
       </c>
       <c r="F18">
-        <v>553.17100000000005</v>
+        <v>415.923</v>
       </c>
       <c r="G18">
-        <v>2980.4859999999999</v>
+        <v>1783.325</v>
       </c>
       <c r="H18">
-        <v>8285.5439999999999</v>
+        <v>4403.1180000000004</v>
       </c>
       <c r="I18">
-        <v>622.36</v>
+        <v>277.851</v>
       </c>
       <c r="J18">
-        <v>1402.135</v>
+        <v>700</v>
       </c>
       <c r="K18">
-        <v>301.60000000000002</v>
+        <v>33.719000000000001</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -2100,37 +2220,37 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>1946.7239999999999</v>
+        <v>814.40200000000004</v>
       </c>
       <c r="O18">
-        <v>3862.7310000000002</v>
+        <v>1736.7809999999999</v>
       </c>
       <c r="P18">
-        <v>2253.44</v>
+        <v>925.06</v>
       </c>
       <c r="Q18">
-        <v>-7.6920000000000002</v>
+        <v>0</v>
       </c>
       <c r="R18">
-        <v>42004</v>
+        <v>38352</v>
       </c>
       <c r="S18">
-        <v>32300</v>
+        <v>34300</v>
       </c>
       <c r="T18">
-        <v>4422.8130000000001</v>
+        <v>2666.337</v>
       </c>
       <c r="U18">
-        <v>97.876999999999995</v>
+        <v>0</v>
       </c>
       <c r="V18">
-        <v>338.76499999999999</v>
+        <v>46.798999999999999</v>
       </c>
       <c r="W18">
         <v>0</v>
       </c>
       <c r="X18">
-        <v>-152.137</v>
+        <v>-10.58</v>
       </c>
       <c r="Y18">
         <v>0</v>
@@ -2139,81 +2259,81 @@
         <v>0</v>
       </c>
       <c r="AA18">
-        <v>146.86799999999999</v>
+        <v>102.47</v>
       </c>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
-        <v>42098</v>
+        <v>38444</v>
       </c>
       <c r="B19" t="s">
         <v>44</v>
       </c>
       <c r="C19">
-        <v>22.346</v>
+        <v>70.02</v>
       </c>
       <c r="D19">
-        <v>1881.1769999999999</v>
+        <v>1493.222</v>
       </c>
       <c r="E19">
-        <v>1092.626</v>
+        <v>727.81700000000001</v>
       </c>
       <c r="F19">
-        <v>521.91899999999998</v>
+        <v>390.36900000000003</v>
       </c>
       <c r="G19">
-        <v>3203.819</v>
+        <v>1987.2750000000001</v>
       </c>
       <c r="H19">
-        <v>8284.6219999999994</v>
+        <v>4641.0280000000002</v>
       </c>
       <c r="I19">
-        <v>634.26400000000001</v>
+        <v>348.13</v>
       </c>
       <c r="J19">
-        <v>606.08000000000004</v>
+        <v>700</v>
       </c>
       <c r="K19">
-        <v>657.1</v>
+        <v>36.426000000000002</v>
       </c>
       <c r="L19">
-        <v>-4841.7</v>
+        <v>-2.8380000000000001</v>
       </c>
       <c r="M19">
-        <v>-212.40199999999999</v>
+        <v>-2E-3</v>
       </c>
       <c r="N19">
-        <v>2891.98</v>
+        <v>975.39599999999996</v>
       </c>
       <c r="O19">
-        <v>4060.8270000000002</v>
+        <v>1896.9269999999999</v>
       </c>
       <c r="P19">
-        <v>2412.2550000000001</v>
+        <v>954.92700000000002</v>
       </c>
       <c r="Q19">
-        <v>9.1639999999999997</v>
+        <v>0</v>
       </c>
       <c r="R19">
-        <v>42098</v>
+        <v>38444</v>
       </c>
       <c r="S19">
         <v>0</v>
       </c>
       <c r="T19">
-        <v>4223.7950000000001</v>
+        <v>2744.1010000000001</v>
       </c>
       <c r="U19">
-        <v>107.041</v>
+        <v>0</v>
       </c>
       <c r="V19">
-        <v>-49.646000000000001</v>
+        <v>50.701000000000001</v>
       </c>
       <c r="W19">
         <v>0</v>
       </c>
       <c r="X19">
-        <v>175.304</v>
+        <v>34.426000000000002</v>
       </c>
       <c r="Y19">
         <v>0</v>
@@ -2222,42 +2342,42 @@
         <v>0</v>
       </c>
       <c r="AA19">
-        <v>22.346</v>
+        <v>73.662000000000006</v>
       </c>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
-        <v>42189</v>
+        <v>38535</v>
       </c>
       <c r="B20" t="s">
         <v>45</v>
       </c>
       <c r="C20">
-        <v>186.49199999999999</v>
+        <v>101.72199999999999</v>
       </c>
       <c r="D20">
-        <v>2041.7329999999999</v>
+        <v>1624.692</v>
       </c>
       <c r="E20">
-        <v>1316.6780000000001</v>
+        <v>760.20699999999999</v>
       </c>
       <c r="F20">
-        <v>627.47</v>
+        <v>438.16500000000002</v>
       </c>
       <c r="G20">
-        <v>3608.6219999999998</v>
+        <v>2005.5730000000001</v>
       </c>
       <c r="H20">
-        <v>10165.67</v>
+        <v>4690.2489999999998</v>
       </c>
       <c r="I20">
-        <v>727.67600000000004</v>
+        <v>328.02100000000002</v>
       </c>
       <c r="J20">
-        <v>1777.828</v>
+        <v>700</v>
       </c>
       <c r="K20">
-        <v>541</v>
+        <v>44.444000000000003</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -2266,37 +2386,37 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>3001.5309999999999</v>
+        <v>941.64800000000002</v>
       </c>
       <c r="O20">
-        <v>5529.4840000000004</v>
+        <v>1862.8920000000001</v>
       </c>
       <c r="P20">
-        <v>3475.8719999999998</v>
+        <v>928.279</v>
       </c>
       <c r="Q20">
-        <v>64.046000000000006</v>
+        <v>0</v>
       </c>
       <c r="R20">
-        <v>42189</v>
+        <v>38535</v>
       </c>
       <c r="S20">
         <v>0</v>
       </c>
       <c r="T20">
-        <v>4636.1859999999997</v>
+        <v>2827.357</v>
       </c>
       <c r="U20">
-        <v>171.08699999999999</v>
+        <v>0</v>
       </c>
       <c r="V20">
-        <v>317.16500000000002</v>
+        <v>104.07899999999999</v>
       </c>
       <c r="W20">
         <v>0</v>
       </c>
       <c r="X20">
-        <v>1053.836</v>
+        <v>-39.247</v>
       </c>
       <c r="Y20">
         <v>0</v>
@@ -2305,42 +2425,42 @@
         <v>0</v>
       </c>
       <c r="AA20">
-        <v>186.49199999999999</v>
+        <v>98.08</v>
       </c>
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
-        <v>42280</v>
+        <v>38626</v>
       </c>
       <c r="B21" t="s">
         <v>46</v>
       </c>
       <c r="C21">
-        <v>214.905</v>
+        <v>115.76300000000001</v>
       </c>
       <c r="D21">
-        <v>2150.6559999999999</v>
+        <v>1697.634</v>
       </c>
       <c r="E21">
-        <v>1267.9269999999999</v>
+        <v>797.98199999999997</v>
       </c>
       <c r="F21">
-        <v>668.69500000000005</v>
+        <v>462.95400000000001</v>
       </c>
       <c r="G21">
-        <v>3499.194</v>
+        <v>2001.069</v>
       </c>
       <c r="H21">
-        <v>10064.482</v>
+        <v>4707.7740000000003</v>
       </c>
       <c r="I21">
-        <v>771.00599999999997</v>
+        <v>348.858</v>
       </c>
       <c r="J21">
-        <v>1263.1759999999999</v>
+        <v>700</v>
       </c>
       <c r="K21">
-        <v>702.27200000000005</v>
+        <v>36.225000000000001</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -2349,37 +2469,37 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>3299.7840000000001</v>
+        <v>844.87800000000004</v>
       </c>
       <c r="O21">
-        <v>5286.4489999999996</v>
+        <v>1766.0119999999999</v>
       </c>
       <c r="P21">
-        <v>3190.991</v>
+        <v>804.904</v>
       </c>
       <c r="Q21">
-        <v>-60.371000000000002</v>
+        <v>0</v>
       </c>
       <c r="R21">
-        <v>42280</v>
+        <v>38626</v>
       </c>
       <c r="S21">
         <v>0</v>
       </c>
       <c r="T21">
-        <v>4778.0330000000004</v>
+        <v>2941.7620000000002</v>
       </c>
       <c r="U21">
-        <v>110.71599999999999</v>
+        <v>0</v>
       </c>
       <c r="V21">
-        <v>389.43299999999999</v>
+        <v>173.25299999999999</v>
       </c>
       <c r="W21">
         <v>0</v>
       </c>
       <c r="X21">
-        <v>-298.63400000000001</v>
+        <v>-121.80500000000001</v>
       </c>
       <c r="Y21">
         <v>0</v>
@@ -2388,42 +2508,42 @@
         <v>0</v>
       </c>
       <c r="AA21">
-        <v>214.905</v>
+        <v>115.76300000000001</v>
       </c>
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
-        <v>42369</v>
+        <v>38717</v>
       </c>
       <c r="B22" t="s">
         <v>47</v>
       </c>
       <c r="C22">
-        <v>191.559</v>
+        <v>99.632999999999996</v>
       </c>
       <c r="D22">
-        <v>1997.9970000000001</v>
+        <v>1804.5509999999999</v>
       </c>
       <c r="E22">
-        <v>1164.586</v>
+        <v>823.00400000000002</v>
       </c>
       <c r="F22">
-        <v>651.45500000000004</v>
+        <v>476.75799999999998</v>
       </c>
       <c r="G22">
-        <v>3249.9720000000002</v>
+        <v>2389.0010000000002</v>
       </c>
       <c r="H22">
-        <v>9934.4</v>
+        <v>8040.0370000000003</v>
       </c>
       <c r="I22">
-        <v>696.97400000000005</v>
+        <v>401.54300000000001</v>
       </c>
       <c r="J22">
-        <v>1188.9639999999999</v>
+        <v>3194.5610000000001</v>
       </c>
       <c r="K22">
-        <v>756.86699999999996</v>
+        <v>97.388999999999996</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -2432,37 +2552,37 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>3259.0279999999998</v>
+        <v>1111.914</v>
       </c>
       <c r="O22">
-        <v>5051.585</v>
+        <v>4981.799</v>
       </c>
       <c r="P22">
-        <v>3191.9670000000001</v>
+        <v>3405.759</v>
       </c>
       <c r="Q22">
-        <v>-29.024000000000001</v>
+        <v>134.58500000000001</v>
       </c>
       <c r="R22">
-        <v>42369</v>
+        <v>38717</v>
       </c>
       <c r="S22">
-        <v>34100</v>
+        <v>37700</v>
       </c>
       <c r="T22">
-        <v>4882.8149999999996</v>
+        <v>3058.2379999999998</v>
       </c>
       <c r="U22">
-        <v>81.691999999999993</v>
+        <v>134.58500000000001</v>
       </c>
       <c r="V22">
-        <v>254.92099999999999</v>
+        <v>233.511</v>
       </c>
       <c r="W22">
         <v>0</v>
       </c>
       <c r="X22">
-        <v>33.576999999999998</v>
+        <v>2567.2930000000001</v>
       </c>
       <c r="Y22">
         <v>0</v>
@@ -2471,81 +2591,81 @@
         <v>0</v>
       </c>
       <c r="AA22">
-        <v>191.559</v>
+        <v>99.632999999999996</v>
       </c>
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
-        <v>42462</v>
+        <v>38808</v>
       </c>
       <c r="B23" t="s">
         <v>48</v>
       </c>
       <c r="C23">
-        <v>171.548</v>
+        <v>79.120999999999995</v>
       </c>
       <c r="D23">
-        <v>2172.0459999999998</v>
+        <v>1925.106</v>
       </c>
       <c r="E23">
-        <v>1340.722</v>
+        <v>910.96299999999997</v>
       </c>
       <c r="F23">
-        <v>645.52700000000004</v>
+        <v>516.34400000000005</v>
       </c>
       <c r="G23">
-        <v>3470.5509999999999</v>
+        <v>2392.08</v>
       </c>
       <c r="H23">
-        <v>10292.315000000001</v>
+        <v>8060.7330000000002</v>
       </c>
       <c r="I23">
-        <v>751.27099999999996</v>
+        <v>398.41800000000001</v>
       </c>
       <c r="J23">
-        <v>1173.5999999999999</v>
+        <v>3148</v>
       </c>
       <c r="K23">
-        <v>1544.855</v>
+        <v>59.1</v>
       </c>
       <c r="L23">
-        <v>-7048.326</v>
+        <v>-1826.5830000000001</v>
       </c>
       <c r="M23">
-        <v>-820.572</v>
+        <v>-29.484999999999999</v>
       </c>
       <c r="N23">
-        <v>3323.6680000000001</v>
+        <v>1133.8820000000001</v>
       </c>
       <c r="O23">
-        <v>5112.3050000000003</v>
+        <v>4909.902</v>
       </c>
       <c r="P23">
-        <v>3249.779</v>
+        <v>3307.2559999999999</v>
       </c>
       <c r="Q23">
-        <v>16.613</v>
+        <v>-52.411000000000001</v>
       </c>
       <c r="R23">
-        <v>42462</v>
+        <v>38808</v>
       </c>
       <c r="S23">
         <v>0</v>
       </c>
       <c r="T23">
-        <v>5180.01</v>
+        <v>3150.8310000000001</v>
       </c>
       <c r="U23">
-        <v>98.305000000000007</v>
+        <v>82.174000000000007</v>
       </c>
       <c r="V23">
-        <v>151.87100000000001</v>
+        <v>104.526</v>
       </c>
       <c r="W23">
         <v>0</v>
       </c>
       <c r="X23">
-        <v>-0.23</v>
+        <v>-112.663</v>
       </c>
       <c r="Y23">
         <v>0</v>
@@ -2554,42 +2674,42 @@
         <v>0</v>
       </c>
       <c r="AA23">
-        <v>171.548</v>
+        <v>79.120999999999995</v>
       </c>
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
-        <v>42553</v>
+        <v>38899</v>
       </c>
       <c r="B24" t="s">
         <v>49</v>
       </c>
       <c r="C24">
-        <v>255.18799999999999</v>
+        <v>119.51300000000001</v>
       </c>
       <c r="D24">
-        <v>2310.3359999999998</v>
+        <v>2058.123</v>
       </c>
       <c r="E24">
-        <v>1382.7909999999999</v>
+        <v>943.18600000000004</v>
       </c>
       <c r="F24">
-        <v>758.36599999999999</v>
+        <v>592.37800000000004</v>
       </c>
       <c r="G24">
-        <v>3519.203</v>
+        <v>2520.4690000000001</v>
       </c>
       <c r="H24">
-        <v>10312.831</v>
+        <v>8347.8109999999997</v>
       </c>
       <c r="I24">
-        <v>782.05100000000004</v>
+        <v>451.20699999999999</v>
       </c>
       <c r="J24">
-        <v>1160.7</v>
+        <v>2596.4119999999998</v>
       </c>
       <c r="K24">
-        <v>1169.24</v>
+        <v>78.739999999999995</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -2598,37 +2718,37 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>3129.7339999999999</v>
+        <v>1677.53</v>
       </c>
       <c r="O24">
-        <v>4903.5649999999996</v>
+        <v>4928.2740000000003</v>
       </c>
       <c r="P24">
-        <v>2956.2840000000001</v>
+        <v>3205.7779999999998</v>
       </c>
       <c r="Q24">
-        <v>13.744</v>
+        <v>-8.7759999999999998</v>
       </c>
       <c r="R24">
-        <v>42553</v>
+        <v>38899</v>
       </c>
       <c r="S24">
         <v>0</v>
       </c>
       <c r="T24">
-        <v>5409.2659999999996</v>
+        <v>3419.5369999999998</v>
       </c>
       <c r="U24">
-        <v>112.04900000000001</v>
+        <v>73.397999999999996</v>
       </c>
       <c r="V24">
-        <v>412.86799999999999</v>
+        <v>238.18100000000001</v>
       </c>
       <c r="W24">
         <v>0</v>
       </c>
       <c r="X24">
-        <v>-264.43700000000001</v>
+        <v>-139.24100000000001</v>
       </c>
       <c r="Y24">
         <v>0</v>
@@ -2637,42 +2757,42 @@
         <v>0</v>
       </c>
       <c r="AA24">
-        <v>255.18799999999999</v>
+        <v>119.51300000000001</v>
       </c>
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
-        <v>42644</v>
+        <v>38990</v>
       </c>
       <c r="B25" t="s">
         <v>50</v>
       </c>
       <c r="C25">
-        <v>269.87799999999999</v>
+        <v>127.708</v>
       </c>
       <c r="D25">
-        <v>2294.1390000000001</v>
+        <v>2024.019</v>
       </c>
       <c r="E25">
-        <v>1439.923</v>
+        <v>921.721</v>
       </c>
       <c r="F25">
-        <v>744.01800000000003</v>
+        <v>568.51099999999997</v>
       </c>
       <c r="G25">
-        <v>3576.3139999999999</v>
+        <v>2485.6039999999998</v>
       </c>
       <c r="H25">
-        <v>10420.593000000001</v>
+        <v>8234.6409999999996</v>
       </c>
       <c r="I25">
-        <v>767.24800000000005</v>
+        <v>411.72800000000001</v>
       </c>
       <c r="J25">
-        <v>1165.577</v>
+        <v>2438.732</v>
       </c>
       <c r="K25">
-        <v>990.39</v>
+        <v>81.882999999999996</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -2681,37 +2801,37 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>2983.32</v>
+        <v>1634.125</v>
       </c>
       <c r="O25">
-        <v>4723.1639999999998</v>
+        <v>4704.1400000000003</v>
       </c>
       <c r="P25">
-        <v>2713.828</v>
+        <v>3029.7660000000001</v>
       </c>
       <c r="Q25">
-        <v>5.8999999999999997E-2</v>
+        <v>-3.6680000000000001</v>
       </c>
       <c r="R25">
-        <v>42644</v>
+        <v>38990</v>
       </c>
       <c r="S25">
         <v>0</v>
       </c>
       <c r="T25">
-        <v>5697.4290000000001</v>
+        <v>3530.5010000000002</v>
       </c>
       <c r="U25">
-        <v>112.108</v>
+        <v>69.73</v>
       </c>
       <c r="V25">
-        <v>435.60300000000001</v>
+        <v>203.53399999999999</v>
       </c>
       <c r="W25">
         <v>0</v>
       </c>
       <c r="X25">
-        <v>-252.215</v>
+        <v>-167.98599999999999</v>
       </c>
       <c r="Y25">
         <v>0</v>
@@ -2720,42 +2840,42 @@
         <v>0</v>
       </c>
       <c r="AA25">
-        <v>269.87799999999999</v>
+        <v>127.708</v>
       </c>
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
-        <v>42735</v>
+        <v>39082</v>
       </c>
       <c r="B26" t="s">
         <v>51</v>
       </c>
       <c r="C26">
-        <v>233.74799999999999</v>
+        <v>129.49100000000001</v>
       </c>
       <c r="D26">
-        <v>2182.5659999999998</v>
+        <v>1898.5940000000001</v>
       </c>
       <c r="E26">
-        <v>1307.971</v>
+        <v>862.22299999999996</v>
       </c>
       <c r="F26">
-        <v>703.21699999999998</v>
+        <v>554.07799999999997</v>
       </c>
       <c r="G26">
-        <v>3471.5120000000002</v>
+        <v>2412.7260000000001</v>
       </c>
       <c r="H26">
-        <v>10230.596</v>
+        <v>8212.2090000000007</v>
       </c>
       <c r="I26">
-        <v>729.41499999999996</v>
+        <v>371.53800000000001</v>
       </c>
       <c r="J26">
-        <v>1128.7470000000001</v>
+        <v>2207.547</v>
       </c>
       <c r="K26">
-        <v>820.303</v>
+        <v>68.138999999999996</v>
       </c>
       <c r="L26">
         <v>0</v>
@@ -2764,37 +2884,37 @@
         <v>0</v>
       </c>
       <c r="N26">
-        <v>2718.32</v>
+        <v>1629.578</v>
       </c>
       <c r="O26">
-        <v>4423.4129999999996</v>
+        <v>4496.9459999999999</v>
       </c>
       <c r="P26">
-        <v>2511.4850000000001</v>
+        <v>2851.82</v>
       </c>
       <c r="Q26">
-        <v>9.5570000000000004</v>
+        <v>-6.2380000000000004</v>
       </c>
       <c r="R26">
-        <v>42735</v>
+        <v>39082</v>
       </c>
       <c r="S26">
-        <v>37800</v>
+        <v>37100</v>
       </c>
       <c r="T26">
-        <v>5807.183</v>
+        <v>3715.2629999999999</v>
       </c>
       <c r="U26">
-        <v>121.66500000000001</v>
+        <v>63.491999999999997</v>
       </c>
       <c r="V26">
-        <v>344.947</v>
+        <v>235.804</v>
       </c>
       <c r="W26">
         <v>0</v>
       </c>
       <c r="X26">
-        <v>-124.754</v>
+        <v>-200.952</v>
       </c>
       <c r="Y26">
         <v>0</v>
@@ -2803,81 +2923,81 @@
         <v>0</v>
       </c>
       <c r="AA26">
-        <v>233.74799999999999</v>
+        <v>129.49100000000001</v>
       </c>
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A27" s="1">
-        <v>42826</v>
+        <v>39172</v>
       </c>
       <c r="B27" t="s">
         <v>52</v>
       </c>
       <c r="C27">
-        <v>200.554</v>
+        <v>90.378</v>
       </c>
       <c r="D27">
-        <v>2220.645</v>
+        <v>1863.8630000000001</v>
       </c>
       <c r="E27">
-        <v>1427.6869999999999</v>
+        <v>914.67200000000003</v>
       </c>
       <c r="F27">
-        <v>683.16499999999996</v>
+        <v>523.44000000000005</v>
       </c>
       <c r="G27">
-        <v>3734.982</v>
+        <v>2543.6970000000001</v>
       </c>
       <c r="H27">
-        <v>10727.517</v>
+        <v>8315.2839999999997</v>
       </c>
       <c r="I27">
-        <v>780.46699999999998</v>
+        <v>421.04500000000002</v>
       </c>
       <c r="J27">
-        <v>1132.268</v>
+        <v>2189.8620000000001</v>
       </c>
       <c r="K27">
-        <v>1458.328</v>
+        <v>58.841000000000001</v>
       </c>
       <c r="L27">
-        <v>-3156.6060000000002</v>
+        <v>-379.51100000000002</v>
       </c>
       <c r="M27">
-        <v>-685.72199999999998</v>
+        <v>-60.082000000000001</v>
       </c>
       <c r="N27">
-        <v>2828.3270000000002</v>
+        <v>1497.308</v>
       </c>
       <c r="O27">
-        <v>4638.4920000000002</v>
+        <v>4462.6869999999999</v>
       </c>
       <c r="P27">
-        <v>2630.2539999999999</v>
+        <v>2763.4749999999999</v>
       </c>
       <c r="Q27">
-        <v>66.771000000000001</v>
+        <v>-9.8940000000000001</v>
       </c>
       <c r="R27">
-        <v>42826</v>
+        <v>39172</v>
       </c>
       <c r="S27">
         <v>0</v>
       </c>
       <c r="T27">
-        <v>6089.0249999999996</v>
+        <v>3852.5970000000002</v>
       </c>
       <c r="U27">
-        <v>188.43600000000001</v>
+        <v>53.597999999999999</v>
       </c>
       <c r="V27">
-        <v>165.88200000000001</v>
+        <v>88.766999999999996</v>
       </c>
       <c r="W27">
         <v>0</v>
       </c>
       <c r="X27">
-        <v>90.867999999999995</v>
+        <v>-74.879000000000005</v>
       </c>
       <c r="Y27">
         <v>0</v>
@@ -2886,42 +3006,42 @@
         <v>0</v>
       </c>
       <c r="AA27">
-        <v>200.554</v>
+        <v>90.378</v>
       </c>
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A28" s="1">
-        <v>42917</v>
+        <v>39263</v>
       </c>
       <c r="B28" t="s">
         <v>53</v>
       </c>
       <c r="C28">
-        <v>260.68099999999998</v>
+        <v>115.268</v>
       </c>
       <c r="D28">
-        <v>2453.038</v>
+        <v>1977.21</v>
       </c>
       <c r="E28">
-        <v>1560.298</v>
+        <v>931.73400000000004</v>
       </c>
       <c r="F28">
-        <v>792.16399999999999</v>
+        <v>556.69799999999998</v>
       </c>
       <c r="G28">
-        <v>4010.723</v>
+        <v>2550.069</v>
       </c>
       <c r="H28">
-        <v>11589.491</v>
+        <v>8309.8080000000009</v>
       </c>
       <c r="I28">
-        <v>871.43799999999999</v>
+        <v>451.38200000000001</v>
       </c>
       <c r="J28">
-        <v>1174.44</v>
+        <v>2137.3490000000002</v>
       </c>
       <c r="K28">
-        <v>1544.8320000000001</v>
+        <v>62.319000000000003</v>
       </c>
       <c r="L28">
         <v>0</v>
@@ -2930,37 +3050,37 @@
         <v>0</v>
       </c>
       <c r="N28">
-        <v>3220.7350000000001</v>
+        <v>1395.3510000000001</v>
       </c>
       <c r="O28">
-        <v>5108.2849999999999</v>
+        <v>4300.9780000000001</v>
       </c>
       <c r="P28">
-        <v>2928.5169999999998</v>
+        <v>2563.7820000000002</v>
       </c>
       <c r="Q28">
-        <v>-58.198</v>
+        <v>4.165</v>
       </c>
       <c r="R28">
-        <v>42917</v>
+        <v>39263</v>
       </c>
       <c r="S28">
         <v>0</v>
       </c>
       <c r="T28">
-        <v>6481.2060000000001</v>
+        <v>4008.83</v>
       </c>
       <c r="U28">
-        <v>130.238</v>
+        <v>57.762999999999998</v>
       </c>
       <c r="V28">
-        <v>247.99600000000001</v>
+        <v>225.685</v>
       </c>
       <c r="W28">
         <v>0</v>
       </c>
       <c r="X28">
-        <v>166.44</v>
+        <v>-190.92599999999999</v>
       </c>
       <c r="Y28">
         <v>0</v>
@@ -2969,42 +3089,42 @@
         <v>0</v>
       </c>
       <c r="AA28">
-        <v>260.68099999999998</v>
+        <v>115.268</v>
       </c>
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A29" s="1">
-        <v>43008</v>
+        <v>39354</v>
       </c>
       <c r="B29" t="s">
         <v>54</v>
       </c>
       <c r="C29">
-        <v>270.02499999999998</v>
+        <v>122.054</v>
       </c>
       <c r="D29">
-        <v>2448.5100000000002</v>
+        <v>1937.6769999999999</v>
       </c>
       <c r="E29">
-        <v>1569.74</v>
+        <v>921.24599999999998</v>
       </c>
       <c r="F29">
-        <v>792.14599999999996</v>
+        <v>545.38300000000004</v>
       </c>
       <c r="G29">
-        <v>3997.11</v>
+        <v>2607.375</v>
       </c>
       <c r="H29">
-        <v>11822.813</v>
+        <v>8527.17</v>
       </c>
       <c r="I29">
-        <v>859.91300000000001</v>
+        <v>465.75</v>
       </c>
       <c r="J29">
-        <v>1544.665</v>
+        <v>2126.9360000000001</v>
       </c>
       <c r="K29">
-        <v>1150.3520000000001</v>
+        <v>33.174999999999997</v>
       </c>
       <c r="L29">
         <v>0</v>
@@ -3013,37 +3133,37 @@
         <v>0</v>
       </c>
       <c r="N29">
-        <v>2697.018</v>
+        <v>1359.4649999999999</v>
       </c>
       <c r="O29">
-        <v>4996.7030000000004</v>
+        <v>4279.4380000000001</v>
       </c>
       <c r="P29">
-        <v>2717.4459999999999</v>
+        <v>2497.462</v>
       </c>
       <c r="Q29">
-        <v>-45.735999999999997</v>
+        <v>23.901</v>
       </c>
       <c r="R29">
-        <v>43008</v>
+        <v>39354</v>
       </c>
       <c r="S29">
         <v>0</v>
       </c>
       <c r="T29">
-        <v>6826.11</v>
+        <v>4247.732</v>
       </c>
       <c r="U29">
-        <v>84.501999999999995</v>
+        <v>81.664000000000001</v>
       </c>
       <c r="V29">
-        <v>460.34399999999999</v>
+        <v>287.38499999999999</v>
       </c>
       <c r="W29">
         <v>0</v>
       </c>
       <c r="X29">
-        <v>-280.64499999999998</v>
+        <v>-78.340999999999994</v>
       </c>
       <c r="Y29">
         <v>0</v>
@@ -3052,42 +3172,42 @@
         <v>0</v>
       </c>
       <c r="AA29">
-        <v>270.02499999999998</v>
+        <v>122.054</v>
       </c>
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A30" s="1">
-        <v>43100</v>
+        <v>39447</v>
       </c>
       <c r="B30" t="s">
         <v>55</v>
       </c>
       <c r="C30">
-        <v>240.37799999999999</v>
+        <v>379.11399999999998</v>
       </c>
       <c r="D30">
-        <v>2369.0970000000002</v>
+        <v>1807.268</v>
       </c>
       <c r="E30">
-        <v>1452.2449999999999</v>
+        <v>789.13599999999997</v>
       </c>
       <c r="F30">
-        <v>778.26400000000001</v>
+        <v>489.26299999999998</v>
       </c>
       <c r="G30">
-        <v>4072.9670000000001</v>
+        <v>2449.7199999999998</v>
       </c>
       <c r="H30">
-        <v>12094.852999999999</v>
+        <v>8680.0499999999993</v>
       </c>
       <c r="I30">
-        <v>810.03399999999999</v>
+        <v>399.14100000000002</v>
       </c>
       <c r="J30">
-        <v>1559.895</v>
+        <v>2021.395</v>
       </c>
       <c r="K30">
-        <v>1140.646</v>
+        <v>24.619</v>
       </c>
       <c r="L30">
         <v>0</v>
@@ -3096,164 +3216,164 @@
         <v>0</v>
       </c>
       <c r="N30">
-        <v>2655.355</v>
+        <v>1211.5</v>
       </c>
       <c r="O30">
-        <v>4998.3810000000003</v>
+        <v>3972.6930000000002</v>
       </c>
       <c r="P30">
-        <v>2763.578</v>
+        <v>2306.453</v>
       </c>
       <c r="Q30">
-        <v>0.38200000000000001</v>
+        <v>7.94</v>
       </c>
       <c r="R30">
-        <v>43100</v>
+        <v>39447</v>
       </c>
       <c r="S30">
-        <v>38800</v>
+        <v>36200</v>
       </c>
       <c r="T30">
-        <v>7096.4719999999998</v>
+        <v>4707.357</v>
       </c>
       <c r="U30">
-        <v>84.884</v>
+        <v>89.603999999999999</v>
       </c>
       <c r="V30">
-        <v>319.37299999999999</v>
+        <v>273.24</v>
       </c>
       <c r="W30">
         <v>0</v>
       </c>
       <c r="X30">
-        <v>16.341999999999999</v>
+        <v>-195.87200000000001</v>
       </c>
       <c r="Y30">
         <v>0</v>
       </c>
       <c r="Z30">
-        <v>-83.903999999999996</v>
+        <v>0</v>
       </c>
       <c r="AA30">
-        <v>240.37799999999999</v>
+        <v>379.11399999999998</v>
       </c>
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A31" s="1">
-        <v>43190</v>
+        <v>39536</v>
       </c>
       <c r="B31" t="s">
         <v>56</v>
       </c>
       <c r="C31">
-        <v>208.76599999999999</v>
+        <v>65.39</v>
       </c>
       <c r="D31">
-        <v>2412.2020000000002</v>
+        <v>1738.097</v>
       </c>
       <c r="E31">
-        <v>1583.6410000000001</v>
+        <v>932.50199999999995</v>
       </c>
       <c r="F31">
-        <v>719.19</v>
+        <v>459.839</v>
       </c>
       <c r="G31">
-        <v>4297.0389999999998</v>
+        <v>2595.8739999999998</v>
       </c>
       <c r="H31">
-        <v>12560.371999999999</v>
+        <v>9017.4189999999999</v>
       </c>
       <c r="I31">
-        <v>897.52499999999998</v>
+        <v>369.64</v>
       </c>
       <c r="J31">
-        <v>1585.6510000000001</v>
+        <v>2003.0129999999999</v>
       </c>
       <c r="K31">
-        <v>1278.3209999999999</v>
+        <v>65.278999999999996</v>
       </c>
       <c r="L31">
-        <v>-3983.6170000000002</v>
+        <v>0</v>
       </c>
       <c r="M31">
-        <v>-365.88900000000001</v>
+        <v>-303.32799999999997</v>
       </c>
       <c r="N31">
-        <v>2795.91</v>
+        <v>1300.6410000000001</v>
       </c>
       <c r="O31">
-        <v>5183.4390000000003</v>
+        <v>4068.4389999999999</v>
       </c>
       <c r="P31">
-        <v>2917.5680000000002</v>
+        <v>2436.0770000000002</v>
       </c>
       <c r="Q31">
-        <v>29.959</v>
+        <v>-16.315000000000001</v>
       </c>
       <c r="R31">
-        <v>43190</v>
+        <v>39536</v>
       </c>
       <c r="S31">
         <v>0</v>
       </c>
       <c r="T31">
-        <v>7376.933</v>
+        <v>4948.9799999999996</v>
       </c>
       <c r="U31">
-        <v>114.843</v>
+        <v>73.289000000000001</v>
       </c>
       <c r="V31">
-        <v>183.22800000000001</v>
+        <v>-80.179000000000002</v>
       </c>
       <c r="W31">
         <v>0</v>
       </c>
       <c r="X31">
-        <v>86.599000000000004</v>
+        <v>119.008</v>
       </c>
       <c r="Y31">
         <v>0</v>
       </c>
       <c r="Z31">
-        <v>33.904000000000003</v>
+        <v>0</v>
       </c>
       <c r="AA31">
-        <v>208.76599999999999</v>
+        <v>65.39</v>
       </c>
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A32" s="1">
-        <v>43281</v>
+        <v>39627</v>
       </c>
       <c r="B32" t="s">
         <v>57</v>
       </c>
       <c r="C32">
-        <v>196.58600000000001</v>
+        <v>88.778000000000006</v>
       </c>
       <c r="D32">
-        <v>2577.0140000000001</v>
+        <v>1840.0450000000001</v>
       </c>
       <c r="E32">
-        <v>1638.607</v>
+        <v>953.62</v>
       </c>
       <c r="F32">
-        <v>778.57299999999998</v>
+        <v>482.892</v>
       </c>
       <c r="G32">
-        <v>4773.68</v>
+        <v>2566.2660000000001</v>
       </c>
       <c r="H32">
-        <v>12894.039000000001</v>
+        <v>8959.5319999999992</v>
       </c>
       <c r="I32">
-        <v>951.2</v>
+        <v>444.23200000000003</v>
       </c>
       <c r="J32">
-        <v>1884.0229999999999</v>
+        <v>1896.6420000000001</v>
       </c>
       <c r="K32">
-        <v>1069.2080000000001</v>
+        <v>21.788</v>
       </c>
       <c r="L32">
         <v>0</v>
@@ -3262,81 +3382,81 @@
         <v>0</v>
       </c>
       <c r="N32">
-        <v>2736.0720000000001</v>
+        <v>1256.135</v>
       </c>
       <c r="O32">
-        <v>5490.5619999999999</v>
+        <v>3916.6350000000002</v>
       </c>
       <c r="P32">
-        <v>3030.5340000000001</v>
+        <v>2208.8220000000001</v>
       </c>
       <c r="Q32">
-        <v>403.38299999999998</v>
+        <v>-9.2509999999999994</v>
       </c>
       <c r="R32">
-        <v>43281</v>
+        <v>39627</v>
       </c>
       <c r="S32">
         <v>0</v>
       </c>
       <c r="T32">
-        <v>7403.4769999999999</v>
+        <v>5042.8969999999999</v>
       </c>
       <c r="U32">
-        <v>518.226</v>
+        <v>64.037999999999997</v>
       </c>
       <c r="V32">
-        <v>437.75799999999998</v>
+        <v>266.87099999999998</v>
       </c>
       <c r="W32">
         <v>0</v>
       </c>
       <c r="X32">
-        <v>221.43</v>
+        <v>-226.24199999999999</v>
       </c>
       <c r="Y32">
         <v>0</v>
       </c>
       <c r="Z32">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AA32">
-        <v>196.58600000000001</v>
+        <v>88.778000000000006</v>
       </c>
     </row>
     <row r="33" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A33" s="1">
-        <v>43372</v>
+        <v>39718</v>
       </c>
       <c r="B33" t="s">
         <v>58</v>
       </c>
       <c r="C33">
-        <v>227.01300000000001</v>
+        <v>-1484.7809999999999</v>
       </c>
       <c r="D33">
-        <v>2545.8000000000002</v>
+        <v>1763.0340000000001</v>
       </c>
       <c r="E33">
-        <v>1645.3589999999999</v>
+        <v>904.24800000000005</v>
       </c>
       <c r="F33">
-        <v>730.63499999999999</v>
+        <v>439.07100000000003</v>
       </c>
       <c r="G33">
-        <v>4548.47</v>
+        <v>2504.0859999999998</v>
       </c>
       <c r="H33">
-        <v>13000.925999999999</v>
+        <v>6972.4319999999998</v>
       </c>
       <c r="I33">
-        <v>925.23800000000006</v>
+        <v>440.93099999999998</v>
       </c>
       <c r="J33">
-        <v>1528.5509999999999</v>
+        <v>1924.6980000000001</v>
       </c>
       <c r="K33">
-        <v>969.52</v>
+        <v>20.582999999999998</v>
       </c>
       <c r="L33">
         <v>0</v>
@@ -3345,81 +3465,81 @@
         <v>0</v>
       </c>
       <c r="N33">
-        <v>2957.2710000000002</v>
+        <v>1112.5809999999999</v>
       </c>
       <c r="O33">
-        <v>5397.9219999999996</v>
+        <v>3626.2869999999998</v>
       </c>
       <c r="P33">
-        <v>2862.404</v>
+        <v>2076.944</v>
       </c>
       <c r="Q33">
-        <v>-426.875</v>
+        <v>-2.0129999999999999</v>
       </c>
       <c r="R33">
-        <v>43372</v>
+        <v>39718</v>
       </c>
       <c r="S33">
         <v>0</v>
       </c>
       <c r="T33">
-        <v>7603.0039999999999</v>
+        <v>3346.145</v>
       </c>
       <c r="U33">
-        <v>91.350999999999999</v>
+        <v>62.024999999999999</v>
       </c>
       <c r="V33">
-        <v>273.49900000000002</v>
+        <v>190.28700000000001</v>
       </c>
       <c r="W33">
         <v>0</v>
       </c>
       <c r="X33">
-        <v>-156.48400000000001</v>
+        <v>-133.624</v>
       </c>
       <c r="Y33">
         <v>0</v>
       </c>
       <c r="Z33">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AA33">
-        <v>227.01300000000001</v>
+        <v>-1484.7809999999999</v>
       </c>
     </row>
     <row r="34" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A34" s="1">
-        <v>43465</v>
+        <v>39813</v>
       </c>
       <c r="B34" t="s">
         <v>59</v>
       </c>
       <c r="C34">
-        <v>229.339</v>
+        <v>-127.61499999999999</v>
       </c>
       <c r="D34">
-        <v>2448.6179999999999</v>
+        <v>1485.172</v>
       </c>
       <c r="E34">
-        <v>1487.566</v>
+        <v>660.29100000000005</v>
       </c>
       <c r="F34">
-        <v>672.13499999999999</v>
+        <v>371.649</v>
       </c>
       <c r="G34">
-        <v>4509.2960000000003</v>
+        <v>2246.2489999999998</v>
       </c>
       <c r="H34">
-        <v>13099.123</v>
+        <v>6446.1750000000002</v>
       </c>
       <c r="I34">
-        <v>811.87900000000002</v>
+        <v>315.053</v>
       </c>
       <c r="J34">
-        <v>1510.431</v>
+        <v>1860.001</v>
       </c>
       <c r="K34">
-        <v>1339.8430000000001</v>
+        <v>0</v>
       </c>
       <c r="L34">
         <v>0</v>
@@ -3428,164 +3548,164 @@
         <v>0</v>
       </c>
       <c r="N34">
-        <v>3266.239</v>
+        <v>876.91600000000005</v>
       </c>
       <c r="O34">
-        <v>5659.0640000000003</v>
+        <v>3261.2420000000002</v>
       </c>
       <c r="P34">
-        <v>3257.9740000000002</v>
+        <v>1954.7860000000001</v>
       </c>
       <c r="Q34">
-        <v>27.699000000000002</v>
+        <v>31.494</v>
       </c>
       <c r="R34">
-        <v>43465</v>
+        <v>39813</v>
       </c>
       <c r="S34">
-        <v>42100</v>
+        <v>31200</v>
       </c>
       <c r="T34">
-        <v>7440.0590000000002</v>
+        <v>3184.933</v>
       </c>
       <c r="U34">
-        <v>119.05</v>
+        <v>93.519000000000005</v>
       </c>
       <c r="V34">
-        <v>286.85899999999998</v>
+        <v>199.107</v>
       </c>
       <c r="W34">
         <v>0</v>
       </c>
       <c r="X34">
-        <v>46.484000000000002</v>
+        <v>-108.06399999999999</v>
       </c>
       <c r="Y34">
-        <v>5.17</v>
+        <v>0</v>
       </c>
       <c r="Z34">
-        <v>-9.0370000000000008</v>
+        <v>0</v>
       </c>
       <c r="AA34">
-        <v>229.339</v>
+        <v>-127.61499999999999</v>
       </c>
     </row>
     <row r="35" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A35" s="1">
-        <v>43554</v>
+        <v>39900</v>
       </c>
       <c r="B35" t="s">
         <v>60</v>
       </c>
       <c r="C35">
-        <v>121.58499999999999</v>
+        <v>-105.887</v>
       </c>
       <c r="D35">
-        <v>2442.4899999999998</v>
+        <v>1208.3389999999999</v>
       </c>
       <c r="E35">
-        <v>1644.6189999999999</v>
+        <v>728.95600000000002</v>
       </c>
       <c r="F35">
-        <v>657.529</v>
+        <v>342.17</v>
       </c>
       <c r="G35">
-        <v>4688.9650000000001</v>
+        <v>2226.6210000000001</v>
       </c>
       <c r="H35">
-        <v>13605.075000000001</v>
+        <v>6287.6360000000004</v>
       </c>
       <c r="I35">
-        <v>914.20500000000004</v>
+        <v>288.916</v>
       </c>
       <c r="J35">
-        <v>1492.845</v>
+        <v>1843.6120000000001</v>
       </c>
       <c r="K35">
-        <v>1405.4110000000001</v>
+        <v>19.734999999999999</v>
       </c>
       <c r="L35">
-        <v>-3826.3710000000001</v>
+        <v>0</v>
       </c>
       <c r="M35">
-        <v>-132.155</v>
+        <v>-256.55700000000002</v>
       </c>
       <c r="N35">
-        <v>3434.2469999999998</v>
+        <v>965.89800000000002</v>
       </c>
       <c r="O35">
-        <v>6028.03</v>
+        <v>3296.2139999999999</v>
       </c>
       <c r="P35">
-        <v>3588.5439999999999</v>
+        <v>2000.848</v>
       </c>
       <c r="Q35">
-        <v>-13.382</v>
+        <v>43.033000000000001</v>
       </c>
       <c r="R35">
-        <v>43554</v>
+        <v>39900</v>
       </c>
       <c r="S35">
         <v>0</v>
       </c>
       <c r="T35">
-        <v>7577.0450000000001</v>
+        <v>2991.422</v>
       </c>
       <c r="U35">
-        <v>105.66800000000001</v>
+        <v>136.55199999999999</v>
       </c>
       <c r="V35">
-        <v>170.137</v>
+        <v>37.918999999999997</v>
       </c>
       <c r="W35">
         <v>0</v>
       </c>
       <c r="X35">
-        <v>26.8</v>
+        <v>33.978000000000002</v>
       </c>
       <c r="Y35">
-        <v>232.72499999999999</v>
+        <v>0</v>
       </c>
       <c r="Z35">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AA35">
-        <v>121.58499999999999</v>
+        <v>-105.887</v>
       </c>
     </row>
     <row r="36" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A36" s="1">
-        <v>43645</v>
+        <v>39991</v>
       </c>
       <c r="B36" t="s">
         <v>61</v>
       </c>
       <c r="C36">
-        <v>202.441</v>
+        <v>46.261000000000003</v>
       </c>
       <c r="D36">
-        <v>2584.4850000000001</v>
+        <v>1406.0119999999999</v>
       </c>
       <c r="E36">
-        <v>1720.769</v>
+        <v>712.60500000000002</v>
       </c>
       <c r="F36">
-        <v>742.48500000000001</v>
+        <v>378.63900000000001</v>
       </c>
       <c r="G36">
-        <v>4808.317</v>
+        <v>2255.7730000000001</v>
       </c>
       <c r="H36">
-        <v>13806.102000000001</v>
+        <v>6355.6890000000003</v>
       </c>
       <c r="I36">
-        <v>976.23099999999999</v>
+        <v>355.03899999999999</v>
       </c>
       <c r="J36">
-        <v>1164.4749999999999</v>
+        <v>1804.086</v>
       </c>
       <c r="K36">
-        <v>1179.2860000000001</v>
+        <v>24.279</v>
       </c>
       <c r="L36">
         <v>0</v>
@@ -3594,81 +3714,81 @@
         <v>0</v>
       </c>
       <c r="N36">
-        <v>3705.7910000000002</v>
+        <v>930.92499999999995</v>
       </c>
       <c r="O36">
-        <v>5984.5110000000004</v>
+        <v>3225.366</v>
       </c>
       <c r="P36">
-        <v>3411.19</v>
+        <v>1883.7</v>
       </c>
       <c r="Q36">
-        <v>22.428000000000001</v>
+        <v>89.991</v>
       </c>
       <c r="R36">
-        <v>43645</v>
+        <v>39991</v>
       </c>
       <c r="S36">
         <v>0</v>
       </c>
       <c r="T36">
-        <v>7821.5910000000003</v>
+        <v>3130.3229999999999</v>
       </c>
       <c r="U36">
-        <v>128.096</v>
+        <v>226.54300000000001</v>
       </c>
       <c r="V36">
-        <v>396.19</v>
+        <v>231.62700000000001</v>
       </c>
       <c r="W36">
         <v>0</v>
       </c>
       <c r="X36">
-        <v>-232.23599999999999</v>
+        <v>-120.991</v>
       </c>
       <c r="Y36">
-        <v>254.858</v>
+        <v>0</v>
       </c>
       <c r="Z36">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AA36">
-        <v>202.441</v>
+        <v>46.261000000000003</v>
       </c>
     </row>
     <row r="37" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A37" s="1">
-        <v>43736</v>
+        <v>40082</v>
       </c>
       <c r="B37" t="s">
         <v>62</v>
       </c>
       <c r="C37">
-        <v>155.518</v>
+        <v>34.347999999999999</v>
       </c>
       <c r="D37">
-        <v>2519.1849999999999</v>
+        <v>1382.5650000000001</v>
       </c>
       <c r="E37">
-        <v>1692.9780000000001</v>
+        <v>702.94799999999998</v>
       </c>
       <c r="F37">
-        <v>699.15499999999997</v>
+        <v>375.48899999999998</v>
       </c>
       <c r="G37">
-        <v>4727.78</v>
+        <v>2359.1109999999999</v>
       </c>
       <c r="H37">
-        <v>13392.762000000001</v>
+        <v>6488.4549999999999</v>
       </c>
       <c r="I37">
-        <v>964.09799999999996</v>
+        <v>353.28199999999998</v>
       </c>
       <c r="J37">
-        <v>1472.2619999999999</v>
+        <v>1802.1379999999999</v>
       </c>
       <c r="K37">
-        <v>932.77599999999995</v>
+        <v>9.5069999999999997</v>
       </c>
       <c r="L37">
         <v>0</v>
@@ -3677,81 +3797,81 @@
         <v>0</v>
       </c>
       <c r="N37">
-        <v>3114.6990000000001</v>
+        <v>929.74199999999996</v>
       </c>
       <c r="O37">
-        <v>5627.4830000000002</v>
+        <v>3242.366</v>
       </c>
       <c r="P37">
-        <v>3097.9810000000002</v>
+        <v>1864.808</v>
       </c>
       <c r="Q37">
-        <v>-16.792999999999999</v>
+        <v>79.602000000000004</v>
       </c>
       <c r="R37">
-        <v>43736</v>
+        <v>40082</v>
       </c>
       <c r="S37">
         <v>0</v>
       </c>
       <c r="T37">
-        <v>7765.2790000000005</v>
+        <v>3246.0889999999999</v>
       </c>
       <c r="U37">
-        <v>111.303</v>
+        <v>306.14499999999998</v>
       </c>
       <c r="V37">
-        <v>411.75900000000001</v>
+        <v>143.17400000000001</v>
       </c>
       <c r="W37">
         <v>0</v>
       </c>
       <c r="X37">
-        <v>-304.87099999999998</v>
+        <v>-45.926000000000002</v>
       </c>
       <c r="Y37">
-        <v>249.87899999999999</v>
+        <v>0</v>
       </c>
       <c r="Z37">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AA37">
-        <v>155.518</v>
+        <v>34.347999999999999</v>
       </c>
     </row>
     <row r="38" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A38" s="1">
-        <v>43830</v>
+        <v>40178</v>
       </c>
       <c r="B38" t="s">
         <v>63</v>
       </c>
       <c r="C38">
-        <v>264.66699999999997</v>
+        <v>19.779</v>
       </c>
       <c r="D38">
-        <v>2424.5120000000002</v>
+        <v>1347.1079999999999</v>
       </c>
       <c r="E38">
-        <v>1429.671</v>
+        <v>570.76199999999994</v>
       </c>
       <c r="F38">
-        <v>669.07600000000002</v>
+        <v>375.01600000000002</v>
       </c>
       <c r="G38">
-        <v>4429.4570000000003</v>
+        <v>2359</v>
       </c>
       <c r="H38">
-        <v>13386.68</v>
+        <v>6391.4459999999999</v>
       </c>
       <c r="I38">
-        <v>824.95600000000002</v>
+        <v>335.40100000000001</v>
       </c>
       <c r="J38">
-        <v>1493.174</v>
+        <v>1801.5719999999999</v>
       </c>
       <c r="K38">
-        <v>693.94600000000003</v>
+        <v>0</v>
       </c>
       <c r="L38">
         <v>0</v>
@@ -3760,164 +3880,164 @@
         <v>0</v>
       </c>
       <c r="N38">
-        <v>2712.5830000000001</v>
+        <v>884.02200000000005</v>
       </c>
       <c r="O38">
-        <v>5260.232</v>
+        <v>3157.1640000000002</v>
       </c>
       <c r="P38">
-        <v>2899.9859999999999</v>
+        <v>1854.479</v>
       </c>
       <c r="Q38">
-        <v>23.481999999999999</v>
+        <v>225.31299999999999</v>
       </c>
       <c r="R38">
-        <v>43830</v>
+        <v>40178</v>
       </c>
       <c r="S38">
-        <v>41800</v>
+        <v>27400</v>
       </c>
       <c r="T38">
-        <v>8126.4480000000003</v>
+        <v>3234.2820000000002</v>
       </c>
       <c r="U38">
-        <v>134.785</v>
+        <v>531.45799999999997</v>
       </c>
       <c r="V38">
-        <v>440.67500000000001</v>
+        <v>259.48500000000001</v>
       </c>
       <c r="W38">
         <v>0</v>
       </c>
       <c r="X38">
-        <v>-279.57</v>
+        <v>7.0949999999999998</v>
       </c>
       <c r="Y38">
-        <v>253.369</v>
+        <v>0</v>
       </c>
       <c r="Z38">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="AA38">
-        <v>264.66699999999997</v>
+        <v>19.779</v>
       </c>
     </row>
     <row r="39" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A39" s="1">
-        <v>43918</v>
+        <v>40271</v>
       </c>
       <c r="B39" t="s">
         <v>64</v>
       </c>
       <c r="C39">
-        <v>110.514</v>
+        <v>20.538</v>
       </c>
       <c r="D39">
-        <v>2285.7629999999999</v>
+        <v>1347.2360000000001</v>
       </c>
       <c r="E39">
-        <v>1546.78</v>
+        <v>688.46299999999997</v>
       </c>
       <c r="F39">
-        <v>628.22199999999998</v>
+        <v>345.10300000000001</v>
       </c>
       <c r="G39">
-        <v>4613.0309999999999</v>
+        <v>2443.4580000000001</v>
       </c>
       <c r="H39">
-        <v>13256.941999999999</v>
+        <v>6318.9</v>
       </c>
       <c r="I39">
-        <v>899.178</v>
+        <v>383.00599999999997</v>
       </c>
       <c r="J39">
-        <v>1488.3889999999999</v>
+        <v>1303.4369999999999</v>
       </c>
       <c r="K39">
-        <v>305.89999999999998</v>
+        <v>0</v>
       </c>
       <c r="L39">
-        <v>-3647.0839999999998</v>
+        <v>-0.88900000000000001</v>
       </c>
       <c r="M39">
-        <v>-66.468999999999994</v>
+        <v>0</v>
       </c>
       <c r="N39">
-        <v>2871.2829999999999</v>
+        <v>1411.116</v>
       </c>
       <c r="O39">
-        <v>5409.299</v>
+        <v>3167.4110000000001</v>
       </c>
       <c r="P39">
-        <v>3070.0279999999998</v>
+        <v>1854.8630000000001</v>
       </c>
       <c r="Q39">
-        <v>128.30099999999999</v>
+        <v>-79.123000000000005</v>
       </c>
       <c r="R39">
-        <v>43918</v>
+        <v>40271</v>
       </c>
       <c r="S39">
         <v>0</v>
       </c>
       <c r="T39">
-        <v>7847.643</v>
+        <v>3151.489</v>
       </c>
       <c r="U39">
-        <v>263.08600000000001</v>
+        <v>452.33499999999998</v>
       </c>
       <c r="V39">
-        <v>194.97399999999999</v>
+        <v>-46.192</v>
       </c>
       <c r="W39">
         <v>0</v>
       </c>
       <c r="X39">
-        <v>87.200999999999993</v>
+        <v>-2.0419999999999998</v>
       </c>
       <c r="Y39">
-        <v>264.44099999999997</v>
+        <v>0</v>
       </c>
       <c r="Z39">
-        <v>-17.8</v>
+        <v>0</v>
       </c>
       <c r="AA39">
-        <v>110.514</v>
+        <v>20.538</v>
       </c>
     </row>
     <row r="40" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A40" s="1">
-        <v>44009</v>
+        <v>40362</v>
       </c>
       <c r="B40" t="s">
         <v>65</v>
       </c>
       <c r="C40">
-        <v>-48.256999999999998</v>
+        <v>68.081000000000003</v>
       </c>
       <c r="D40">
-        <v>2049.8000000000002</v>
+        <v>1400.086</v>
       </c>
       <c r="E40">
-        <v>1484.2380000000001</v>
+        <v>682.73900000000003</v>
       </c>
       <c r="F40">
-        <v>420.01</v>
+        <v>379.685</v>
       </c>
       <c r="G40">
-        <v>4745.9979999999996</v>
+        <v>2284.86</v>
       </c>
       <c r="H40">
-        <v>13369.404</v>
+        <v>6003.9160000000002</v>
       </c>
       <c r="I40">
-        <v>845.25699999999995</v>
+        <v>393.32299999999998</v>
       </c>
       <c r="J40">
-        <v>2546.0909999999999</v>
+        <v>1303.155</v>
       </c>
       <c r="K40">
-        <v>129.63499999999999</v>
+        <v>0</v>
       </c>
       <c r="L40">
         <v>0</v>
@@ -3926,78 +4046,78 @@
         <v>0</v>
       </c>
       <c r="N40">
-        <v>1872.23</v>
+        <v>1160.2159999999999</v>
       </c>
       <c r="O40">
-        <v>5444.54</v>
+        <v>2894.7260000000001</v>
       </c>
       <c r="P40">
-        <v>3053.3560000000002</v>
+        <v>1654.462</v>
       </c>
       <c r="Q40">
-        <v>474.62599999999998</v>
+        <v>-109.66200000000001</v>
       </c>
       <c r="R40">
-        <v>44009</v>
+        <v>40362</v>
       </c>
       <c r="S40">
         <v>0</v>
       </c>
       <c r="T40">
-        <v>7924.8639999999996</v>
+        <v>3109.19</v>
       </c>
       <c r="U40">
-        <v>737.71199999999999</v>
+        <v>342.673</v>
       </c>
       <c r="V40">
-        <v>568.52099999999996</v>
+        <v>135.16900000000001</v>
       </c>
       <c r="W40">
         <v>0</v>
       </c>
       <c r="X40">
-        <v>-24.231999999999999</v>
+        <v>-209.99799999999999</v>
       </c>
       <c r="Y40">
-        <v>253.619</v>
+        <v>0</v>
       </c>
       <c r="Z40">
-        <v>3.6</v>
+        <v>0</v>
       </c>
       <c r="AA40">
-        <v>-48.256999999999998</v>
+        <v>68.081000000000003</v>
       </c>
     </row>
     <row r="41" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A41" s="1">
-        <v>44100</v>
+        <v>40453</v>
       </c>
       <c r="B41" t="s">
         <v>66</v>
       </c>
       <c r="C41">
-        <v>205.11699999999999</v>
+        <v>51.094000000000001</v>
       </c>
       <c r="D41">
-        <v>2574.87</v>
+        <v>1309.5519999999999</v>
       </c>
       <c r="E41">
-        <v>1614.664</v>
+        <v>659.64300000000003</v>
       </c>
       <c r="F41">
-        <v>723.90899999999999</v>
+        <v>338.24099999999999</v>
       </c>
       <c r="G41">
-        <v>5151.9870000000001</v>
+        <v>2294.2020000000002</v>
       </c>
       <c r="H41">
-        <v>13784.214</v>
+        <v>6191.91</v>
       </c>
       <c r="I41">
-        <v>989.88</v>
+        <v>389.262</v>
       </c>
       <c r="J41">
-        <v>2251.0340000000001</v>
+        <v>1303.1510000000001</v>
       </c>
       <c r="K41">
         <v>0</v>
@@ -4009,128 +4129,3448 @@
         <v>0</v>
       </c>
       <c r="N41">
-        <v>2387.114</v>
+        <v>1131.3109999999999</v>
       </c>
       <c r="O41">
-        <v>5617.1450000000004</v>
+        <v>2876.41</v>
       </c>
       <c r="P41">
-        <v>2951.3429999999998</v>
+        <v>1654.6369999999999</v>
       </c>
       <c r="Q41">
-        <v>43.526000000000003</v>
+        <v>23.161999999999999</v>
       </c>
       <c r="R41">
-        <v>44100</v>
+        <v>40453</v>
       </c>
       <c r="S41">
         <v>0</v>
       </c>
       <c r="T41">
-        <v>8167.0690000000004</v>
+        <v>3315.5</v>
       </c>
       <c r="U41">
-        <v>781.23800000000006</v>
+        <v>365.83499999999998</v>
       </c>
       <c r="V41">
-        <v>598.49900000000002</v>
+        <v>121.417</v>
       </c>
       <c r="W41">
         <v>0</v>
       </c>
       <c r="X41">
-        <v>-132.00800000000001</v>
+        <v>0.73699999999999999</v>
       </c>
       <c r="Y41">
-        <v>246.40100000000001</v>
+        <v>0</v>
       </c>
       <c r="Z41">
-        <v>-351.084</v>
+        <v>0</v>
       </c>
       <c r="AA41">
-        <v>205.11699999999999</v>
+        <v>51.094000000000001</v>
       </c>
     </row>
     <row r="42" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A42" s="1">
-        <v>44196</v>
+        <v>40543</v>
       </c>
       <c r="B42" t="s">
         <v>67</v>
       </c>
       <c r="C42">
+        <v>45.758000000000003</v>
+      </c>
+      <c r="D42">
+        <v>1262.1980000000001</v>
+      </c>
+      <c r="E42">
+        <v>575.78399999999999</v>
+      </c>
+      <c r="F42">
+        <v>326.96300000000002</v>
+      </c>
+      <c r="G42">
+        <v>2248.6129999999998</v>
+      </c>
+      <c r="H42">
+        <v>6098.9260000000004</v>
+      </c>
+      <c r="I42">
+        <v>353.387</v>
+      </c>
+      <c r="J42">
+        <v>1302.9939999999999</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+      <c r="N42">
+        <v>1048.914</v>
+      </c>
+      <c r="O42">
+        <v>2791.9290000000001</v>
+      </c>
+      <c r="P42">
+        <v>1653.5820000000001</v>
+      </c>
+      <c r="Q42">
+        <v>-11.618</v>
+      </c>
+      <c r="R42">
+        <v>40543</v>
+      </c>
+      <c r="S42">
+        <v>26900</v>
+      </c>
+      <c r="T42">
+        <v>3306.9969999999998</v>
+      </c>
+      <c r="U42">
+        <v>354.21699999999998</v>
+      </c>
+      <c r="V42">
+        <v>109.318</v>
+      </c>
+      <c r="W42">
+        <v>0</v>
+      </c>
+      <c r="X42">
+        <v>-43.896000000000001</v>
+      </c>
+      <c r="Y42">
+        <v>0</v>
+      </c>
+      <c r="Z42">
+        <v>-79.917000000000002</v>
+      </c>
+      <c r="AA42">
+        <v>45.758000000000003</v>
+      </c>
+    </row>
+    <row r="43" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A43" s="1">
+        <v>40635</v>
+      </c>
+      <c r="B43" t="s">
+        <v>68</v>
+      </c>
+      <c r="C43">
+        <v>23.442</v>
+      </c>
+      <c r="D43">
+        <v>1343.595</v>
+      </c>
+      <c r="E43">
+        <v>712.16099999999994</v>
+      </c>
+      <c r="F43">
+        <v>347.93900000000002</v>
+      </c>
+      <c r="G43">
+        <v>2339.6750000000002</v>
+      </c>
+      <c r="H43">
+        <v>6266.2330000000002</v>
+      </c>
+      <c r="I43">
+        <v>396.77499999999998</v>
+      </c>
+      <c r="J43">
+        <v>1577.1880000000001</v>
+      </c>
+      <c r="K43">
+        <v>0</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+      <c r="M43">
+        <v>-631.11400000000003</v>
+      </c>
+      <c r="N43">
+        <v>792.47400000000005</v>
+      </c>
+      <c r="O43">
+        <v>2819.6460000000002</v>
+      </c>
+      <c r="P43">
+        <v>1629.894</v>
+      </c>
+      <c r="Q43">
+        <v>-97.986000000000004</v>
+      </c>
+      <c r="R43">
+        <v>40635</v>
+      </c>
+      <c r="S43">
+        <v>0</v>
+      </c>
+      <c r="T43">
+        <v>3446.587</v>
+      </c>
+      <c r="U43">
+        <v>256.23099999999999</v>
+      </c>
+      <c r="V43">
+        <v>-67.412999999999997</v>
+      </c>
+      <c r="W43">
+        <v>0</v>
+      </c>
+      <c r="X43">
+        <v>8.3919999999999995</v>
+      </c>
+      <c r="Y43">
+        <v>0</v>
+      </c>
+      <c r="Z43">
+        <v>0</v>
+      </c>
+      <c r="AA43">
+        <v>23.442</v>
+      </c>
+    </row>
+    <row r="44" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A44" s="1">
+        <v>40726</v>
+      </c>
+      <c r="B44" t="s">
+        <v>69</v>
+      </c>
+      <c r="C44">
+        <v>60.902999999999999</v>
+      </c>
+      <c r="D44">
+        <v>1477.854</v>
+      </c>
+      <c r="E44">
+        <v>759.72199999999998</v>
+      </c>
+      <c r="F44">
+        <v>387.779</v>
+      </c>
+      <c r="G44">
+        <v>2447.2370000000001</v>
+      </c>
+      <c r="H44">
+        <v>6389</v>
+      </c>
+      <c r="I44">
+        <v>416.90899999999999</v>
+      </c>
+      <c r="J44">
+        <v>1155.1500000000001</v>
+      </c>
+      <c r="K44">
+        <v>0</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="M44">
+        <v>0</v>
+      </c>
+      <c r="N44">
+        <v>1224.482</v>
+      </c>
+      <c r="O44">
+        <v>2839.741</v>
+      </c>
+      <c r="P44">
+        <v>1608.335</v>
+      </c>
+      <c r="Q44">
+        <v>29.190999999999999</v>
+      </c>
+      <c r="R44">
+        <v>40726</v>
+      </c>
+      <c r="S44">
+        <v>0</v>
+      </c>
+      <c r="T44">
+        <v>3549.259</v>
+      </c>
+      <c r="U44">
+        <v>285.42200000000003</v>
+      </c>
+      <c r="V44">
+        <v>96.003</v>
+      </c>
+      <c r="W44">
+        <v>0</v>
+      </c>
+      <c r="X44">
+        <v>-11.805</v>
+      </c>
+      <c r="Y44">
+        <v>0</v>
+      </c>
+      <c r="Z44">
+        <v>0</v>
+      </c>
+      <c r="AA44">
+        <v>60.902999999999999</v>
+      </c>
+    </row>
+    <row r="45" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A45" s="1">
+        <v>40817</v>
+      </c>
+      <c r="B45" t="s">
+        <v>70</v>
+      </c>
+      <c r="C45">
+        <v>46.646000000000001</v>
+      </c>
+      <c r="D45">
+        <v>1442.5119999999999</v>
+      </c>
+      <c r="E45">
+        <v>747.95399999999995</v>
+      </c>
+      <c r="F45">
+        <v>358.80799999999999</v>
+      </c>
+      <c r="G45">
+        <v>2440.5880000000002</v>
+      </c>
+      <c r="H45">
+        <v>6277.5680000000002</v>
+      </c>
+      <c r="I45">
+        <v>412.94600000000003</v>
+      </c>
+      <c r="J45">
+        <v>1173.038</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+      <c r="N45">
+        <v>1213.239</v>
+      </c>
+      <c r="O45">
+        <v>2826.0749999999998</v>
+      </c>
+      <c r="P45">
+        <v>1611.338</v>
+      </c>
+      <c r="Q45">
+        <v>-9.266</v>
+      </c>
+      <c r="R45">
+        <v>40817</v>
+      </c>
+      <c r="S45">
+        <v>0</v>
+      </c>
+      <c r="T45">
+        <v>3451.4929999999999</v>
+      </c>
+      <c r="U45">
+        <v>276.15600000000001</v>
+      </c>
+      <c r="V45">
+        <v>109.598</v>
+      </c>
+      <c r="W45">
+        <v>0</v>
+      </c>
+      <c r="X45">
+        <v>-4.556</v>
+      </c>
+      <c r="Y45">
+        <v>0</v>
+      </c>
+      <c r="Z45">
+        <v>0</v>
+      </c>
+      <c r="AA45">
+        <v>46.646000000000001</v>
+      </c>
+    </row>
+    <row r="46" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A46" s="1">
+        <v>40908</v>
+      </c>
+      <c r="B46" t="s">
+        <v>71</v>
+      </c>
+      <c r="C46">
+        <v>42.930999999999997</v>
+      </c>
+      <c r="D46">
+        <v>1378.297</v>
+      </c>
+      <c r="E46">
+        <v>653.15099999999995</v>
+      </c>
+      <c r="F46">
+        <v>339.899</v>
+      </c>
+      <c r="G46">
+        <v>2398.1640000000002</v>
+      </c>
+      <c r="H46">
+        <v>6206.2280000000001</v>
+      </c>
+      <c r="I46">
+        <v>372.61599999999999</v>
+      </c>
+      <c r="J46">
+        <v>1200.184</v>
+      </c>
+      <c r="K46">
+        <v>0</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46">
+        <v>0</v>
+      </c>
+      <c r="N46">
+        <v>1101.346</v>
+      </c>
+      <c r="O46">
+        <v>2756.72</v>
+      </c>
+      <c r="P46">
+        <v>1586.4390000000001</v>
+      </c>
+      <c r="Q46">
+        <v>35.789000000000001</v>
+      </c>
+      <c r="R46">
+        <v>40908</v>
+      </c>
+      <c r="S46">
+        <v>26200</v>
+      </c>
+      <c r="T46">
+        <v>3449.5079999999998</v>
+      </c>
+      <c r="U46">
+        <v>311.94499999999999</v>
+      </c>
+      <c r="V46">
+        <v>162.80500000000001</v>
+      </c>
+      <c r="W46">
+        <v>0</v>
+      </c>
+      <c r="X46">
+        <v>-25.155000000000001</v>
+      </c>
+      <c r="Y46">
+        <v>0</v>
+      </c>
+      <c r="Z46">
+        <v>0</v>
+      </c>
+      <c r="AA46">
+        <v>42.930999999999997</v>
+      </c>
+    </row>
+    <row r="47" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A47" s="1">
+        <v>40999</v>
+      </c>
+      <c r="B47" t="s">
+        <v>72</v>
+      </c>
+      <c r="C47">
+        <v>40.377000000000002</v>
+      </c>
+      <c r="D47">
+        <v>1409.0350000000001</v>
+      </c>
+      <c r="E47">
+        <v>753.73900000000003</v>
+      </c>
+      <c r="F47">
+        <v>359.42599999999999</v>
+      </c>
+      <c r="G47">
+        <v>2544.6280000000002</v>
+      </c>
+      <c r="H47">
+        <v>6399.1940000000004</v>
+      </c>
+      <c r="I47">
+        <v>398.84199999999998</v>
+      </c>
+      <c r="J47">
+        <v>1642.4190000000001</v>
+      </c>
+      <c r="K47">
+        <v>0</v>
+      </c>
+      <c r="L47">
+        <v>-10.255000000000001</v>
+      </c>
+      <c r="M47">
+        <v>-330.38400000000001</v>
+      </c>
+      <c r="N47">
+        <v>778.69200000000001</v>
+      </c>
+      <c r="O47">
+        <v>2879.8969999999999</v>
+      </c>
+      <c r="P47">
+        <v>1699.7280000000001</v>
+      </c>
+      <c r="Q47">
+        <v>-7.17</v>
+      </c>
+      <c r="R47">
+        <v>40999</v>
+      </c>
+      <c r="S47">
+        <v>0</v>
+      </c>
+      <c r="T47">
+        <v>3519.297</v>
+      </c>
+      <c r="U47">
+        <v>304.77499999999998</v>
+      </c>
+      <c r="V47">
+        <v>-44.47</v>
+      </c>
+      <c r="W47">
+        <v>0</v>
+      </c>
+      <c r="X47">
+        <v>71.959000000000003</v>
+      </c>
+      <c r="Y47">
+        <v>0</v>
+      </c>
+      <c r="Z47">
+        <v>0</v>
+      </c>
+      <c r="AA47">
+        <v>40.377000000000002</v>
+      </c>
+    </row>
+    <row r="48" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A48" s="1">
+        <v>41090</v>
+      </c>
+      <c r="B48" t="s">
+        <v>73</v>
+      </c>
+      <c r="C48">
+        <v>73.188000000000002</v>
+      </c>
+      <c r="D48">
+        <v>1469.7929999999999</v>
+      </c>
+      <c r="E48">
+        <v>752.03200000000004</v>
+      </c>
+      <c r="F48">
+        <v>395.1</v>
+      </c>
+      <c r="G48">
+        <v>2534.1860000000001</v>
+      </c>
+      <c r="H48">
+        <v>6264.777</v>
+      </c>
+      <c r="I48">
+        <v>381.50299999999999</v>
+      </c>
+      <c r="J48">
+        <v>1570.53</v>
+      </c>
+      <c r="K48">
+        <v>0</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+      <c r="M48">
+        <v>0</v>
+      </c>
+      <c r="N48">
+        <v>790.56899999999996</v>
+      </c>
+      <c r="O48">
+        <v>2788.4589999999998</v>
+      </c>
+      <c r="P48">
+        <v>1627.6880000000001</v>
+      </c>
+      <c r="Q48">
+        <v>14.688000000000001</v>
+      </c>
+      <c r="R48">
+        <v>41090</v>
+      </c>
+      <c r="S48">
+        <v>0</v>
+      </c>
+      <c r="T48">
+        <v>3476.3180000000002</v>
+      </c>
+      <c r="U48">
+        <v>319.46300000000002</v>
+      </c>
+      <c r="V48">
+        <v>140.04599999999999</v>
+      </c>
+      <c r="W48">
+        <v>0</v>
+      </c>
+      <c r="X48">
+        <v>-58.776000000000003</v>
+      </c>
+      <c r="Y48">
+        <v>0</v>
+      </c>
+      <c r="Z48">
+        <v>-7.0069999999999997</v>
+      </c>
+      <c r="AA48">
+        <v>73.188000000000002</v>
+      </c>
+    </row>
+    <row r="49" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A49" s="1">
+        <v>41181</v>
+      </c>
+      <c r="B49" t="s">
+        <v>74</v>
+      </c>
+      <c r="C49">
+        <v>70.304000000000002</v>
+      </c>
+      <c r="D49">
+        <v>1473.4929999999999</v>
+      </c>
+      <c r="E49">
+        <v>761.76599999999996</v>
+      </c>
+      <c r="F49">
+        <v>375.82100000000003</v>
+      </c>
+      <c r="G49">
+        <v>2596.7289999999998</v>
+      </c>
+      <c r="H49">
+        <v>6302.6120000000001</v>
+      </c>
+      <c r="I49">
+        <v>397.86500000000001</v>
+      </c>
+      <c r="J49">
+        <v>1467.269</v>
+      </c>
+      <c r="K49">
+        <v>0</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+      <c r="M49">
+        <v>0</v>
+      </c>
+      <c r="N49">
+        <v>818.85900000000004</v>
+      </c>
+      <c r="O49">
+        <v>2707.6770000000001</v>
+      </c>
+      <c r="P49">
+        <v>1524.942</v>
+      </c>
+      <c r="Q49">
+        <v>61.378999999999998</v>
+      </c>
+      <c r="R49">
+        <v>41181</v>
+      </c>
+      <c r="S49">
+        <v>0</v>
+      </c>
+      <c r="T49">
+        <v>3594.9349999999999</v>
+      </c>
+      <c r="U49">
+        <v>380.84199999999998</v>
+      </c>
+      <c r="V49">
+        <v>202.971</v>
+      </c>
+      <c r="W49">
+        <v>0</v>
+      </c>
+      <c r="X49">
+        <v>-100.875</v>
+      </c>
+      <c r="Y49">
+        <v>0</v>
+      </c>
+      <c r="Z49">
+        <v>0</v>
+      </c>
+      <c r="AA49">
+        <v>70.304000000000002</v>
+      </c>
+    </row>
+    <row r="50" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A50" s="1">
+        <v>41274</v>
+      </c>
+      <c r="B50" t="s">
+        <v>75</v>
+      </c>
+      <c r="C50">
+        <v>66.388999999999996</v>
+      </c>
+      <c r="D50">
+        <v>1435.6590000000001</v>
+      </c>
+      <c r="E50">
+        <v>653.67999999999995</v>
+      </c>
+      <c r="F50">
+        <v>374.52699999999999</v>
+      </c>
+      <c r="G50">
+        <v>2550.0459999999998</v>
+      </c>
+      <c r="H50">
+        <v>6303.6840000000002</v>
+      </c>
+      <c r="I50">
+        <v>387.87099999999998</v>
+      </c>
+      <c r="J50">
+        <v>1327.729</v>
+      </c>
+      <c r="K50">
+        <v>0</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+      <c r="M50">
+        <v>0</v>
+      </c>
+      <c r="N50">
+        <v>828.649</v>
+      </c>
+      <c r="O50">
+        <v>2584.067</v>
+      </c>
+      <c r="P50">
+        <v>1382.942</v>
+      </c>
+      <c r="Q50">
+        <v>96.83</v>
+      </c>
+      <c r="R50">
+        <v>41274</v>
+      </c>
+      <c r="S50">
+        <v>25100</v>
+      </c>
+      <c r="T50">
+        <v>3719.6170000000002</v>
+      </c>
+      <c r="U50">
+        <v>477.67200000000003</v>
+      </c>
+      <c r="V50">
+        <v>289.04300000000001</v>
+      </c>
+      <c r="W50">
+        <v>0</v>
+      </c>
+      <c r="X50">
+        <v>-129.13900000000001</v>
+      </c>
+      <c r="Y50">
+        <v>0</v>
+      </c>
+      <c r="Z50">
+        <v>0</v>
+      </c>
+      <c r="AA50">
+        <v>66.388999999999996</v>
+      </c>
+    </row>
+    <row r="51" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A51" s="1">
+        <v>41363</v>
+      </c>
+      <c r="B51" t="s">
+        <v>76</v>
+      </c>
+      <c r="C51">
+        <v>50.494999999999997</v>
+      </c>
+      <c r="D51">
+        <v>1486.8150000000001</v>
+      </c>
+      <c r="E51">
+        <v>801.89400000000001</v>
+      </c>
+      <c r="F51">
+        <v>380.47699999999998</v>
+      </c>
+      <c r="G51">
+        <v>3446.6060000000002</v>
+      </c>
+      <c r="H51">
+        <v>7261.8450000000003</v>
+      </c>
+      <c r="I51">
+        <v>459.39699999999999</v>
+      </c>
+      <c r="J51">
+        <v>2253.02</v>
+      </c>
+      <c r="K51">
+        <v>0</v>
+      </c>
+      <c r="L51">
+        <v>-8.0690000000000008</v>
+      </c>
+      <c r="M51">
+        <v>-539.03899999999999</v>
+      </c>
+      <c r="N51">
+        <v>877.63099999999997</v>
+      </c>
+      <c r="O51">
+        <v>3537.261</v>
+      </c>
+      <c r="P51">
+        <v>2306.5160000000001</v>
+      </c>
+      <c r="Q51">
+        <v>642.495</v>
+      </c>
+      <c r="R51">
+        <v>41363</v>
+      </c>
+      <c r="S51">
+        <v>0</v>
+      </c>
+      <c r="T51">
+        <v>3724.5839999999998</v>
+      </c>
+      <c r="U51">
+        <v>1120.1669999999999</v>
+      </c>
+      <c r="V51">
+        <v>-38.944000000000003</v>
+      </c>
+      <c r="W51">
+        <v>0</v>
+      </c>
+      <c r="X51">
+        <v>937.97500000000002</v>
+      </c>
+      <c r="Y51">
+        <v>0</v>
+      </c>
+      <c r="Z51">
+        <v>0</v>
+      </c>
+      <c r="AA51">
+        <v>50.494999999999997</v>
+      </c>
+    </row>
+    <row r="52" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A52" s="1">
+        <v>41454</v>
+      </c>
+      <c r="B52" t="s">
+        <v>77</v>
+      </c>
+      <c r="C52">
+        <v>84.572000000000003</v>
+      </c>
+      <c r="D52">
+        <v>1976.299</v>
+      </c>
+      <c r="E52">
+        <v>1086.2560000000001</v>
+      </c>
+      <c r="F52">
+        <v>547.13400000000001</v>
+      </c>
+      <c r="G52">
+        <v>3270.1950000000002</v>
+      </c>
+      <c r="H52">
+        <v>8508.9639999999999</v>
+      </c>
+      <c r="I52">
+        <v>729.03399999999999</v>
+      </c>
+      <c r="J52">
+        <v>2450.5839999999998</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+      <c r="M52">
+        <v>0</v>
+      </c>
+      <c r="N52">
+        <v>1344.962</v>
+      </c>
+      <c r="O52">
+        <v>4404.6710000000003</v>
+      </c>
+      <c r="P52">
+        <v>2533.7550000000001</v>
+      </c>
+      <c r="Q52">
+        <v>-951.42200000000003</v>
+      </c>
+      <c r="R52">
+        <v>41454</v>
+      </c>
+      <c r="S52">
+        <v>0</v>
+      </c>
+      <c r="T52">
+        <v>4104.2929999999997</v>
+      </c>
+      <c r="U52">
+        <v>168.745</v>
+      </c>
+      <c r="V52">
+        <v>152.858</v>
+      </c>
+      <c r="W52">
+        <v>0</v>
+      </c>
+      <c r="X52">
+        <v>-730.32899999999995</v>
+      </c>
+      <c r="Y52">
+        <v>0</v>
+      </c>
+      <c r="Z52">
+        <v>0</v>
+      </c>
+      <c r="AA52">
+        <v>84.572000000000003</v>
+      </c>
+    </row>
+    <row r="53" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A53" s="1">
+        <v>41545</v>
+      </c>
+      <c r="B53" t="s">
+        <v>78</v>
+      </c>
+      <c r="C53">
+        <v>119.068</v>
+      </c>
+      <c r="D53">
+        <v>1961.5360000000001</v>
+      </c>
+      <c r="E53">
+        <v>1085.375</v>
+      </c>
+      <c r="F53">
+        <v>543.88599999999997</v>
+      </c>
+      <c r="G53">
+        <v>3188.4630000000002</v>
+      </c>
+      <c r="H53">
+        <v>8564.1569999999992</v>
+      </c>
+      <c r="I53">
+        <v>727.77</v>
+      </c>
+      <c r="J53">
+        <v>2257.3910000000001</v>
+      </c>
+      <c r="K53">
+        <v>0</v>
+      </c>
+      <c r="L53">
+        <v>0</v>
+      </c>
+      <c r="M53">
+        <v>0</v>
+      </c>
+      <c r="N53">
+        <v>1385.223</v>
+      </c>
+      <c r="O53">
+        <v>4230.5240000000003</v>
+      </c>
+      <c r="P53">
+        <v>2346.422</v>
+      </c>
+      <c r="Q53">
+        <v>-105.16500000000001</v>
+      </c>
+      <c r="R53">
+        <v>41545</v>
+      </c>
+      <c r="S53">
+        <v>0</v>
+      </c>
+      <c r="T53">
+        <v>4333.6329999999998</v>
+      </c>
+      <c r="U53">
+        <v>63.58</v>
+      </c>
+      <c r="V53">
+        <v>213.059</v>
+      </c>
+      <c r="W53">
+        <v>0</v>
+      </c>
+      <c r="X53">
+        <v>-211.529</v>
+      </c>
+      <c r="Y53">
+        <v>0</v>
+      </c>
+      <c r="Z53">
+        <v>0</v>
+      </c>
+      <c r="AA53">
+        <v>119.068</v>
+      </c>
+    </row>
+    <row r="54" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A54" s="1">
+        <v>41639</v>
+      </c>
+      <c r="B54" t="s">
+        <v>79</v>
+      </c>
+      <c r="C54">
+        <v>0</v>
+      </c>
+      <c r="D54">
+        <v>0</v>
+      </c>
+      <c r="E54">
+        <v>999.78700000000003</v>
+      </c>
+      <c r="F54">
+        <v>0</v>
+      </c>
+      <c r="G54">
+        <v>3085.7179999999998</v>
+      </c>
+      <c r="H54">
+        <v>8494.1769999999997</v>
+      </c>
+      <c r="I54">
+        <v>631.73199999999997</v>
+      </c>
+      <c r="J54">
+        <v>2132.79</v>
+      </c>
+      <c r="K54">
+        <v>0</v>
+      </c>
+      <c r="L54">
+        <v>0</v>
+      </c>
+      <c r="M54">
+        <v>0</v>
+      </c>
+      <c r="N54">
+        <v>1320.8109999999999</v>
+      </c>
+      <c r="O54">
+        <v>4023.8710000000001</v>
+      </c>
+      <c r="P54">
+        <v>2260.0079999999998</v>
+      </c>
+      <c r="Q54">
+        <v>0</v>
+      </c>
+      <c r="R54">
+        <v>41639</v>
+      </c>
+      <c r="S54">
+        <v>32100</v>
+      </c>
+      <c r="T54">
+        <v>4470.3059999999996</v>
+      </c>
+      <c r="U54">
+        <v>54.066000000000003</v>
+      </c>
+      <c r="V54">
+        <v>0</v>
+      </c>
+      <c r="W54">
+        <v>0</v>
+      </c>
+      <c r="X54">
+        <v>0</v>
+      </c>
+      <c r="Y54">
+        <v>0</v>
+      </c>
+      <c r="Z54">
+        <v>0</v>
+      </c>
+      <c r="AA54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A55" s="1">
+        <v>41727</v>
+      </c>
+      <c r="B55" t="s">
+        <v>80</v>
+      </c>
+      <c r="C55">
+        <v>81.081000000000003</v>
+      </c>
+      <c r="D55">
+        <v>1813.095</v>
+      </c>
+      <c r="E55">
+        <v>1112.0450000000001</v>
+      </c>
+      <c r="F55">
+        <v>486.99200000000002</v>
+      </c>
+      <c r="G55">
+        <v>3263.2739999999999</v>
+      </c>
+      <c r="H55">
+        <v>8681.4879999999994</v>
+      </c>
+      <c r="I55">
+        <v>697.36599999999999</v>
+      </c>
+      <c r="J55">
+        <v>1811.789</v>
+      </c>
+      <c r="K55">
+        <v>0</v>
+      </c>
+      <c r="L55">
+        <v>-287.48500000000001</v>
+      </c>
+      <c r="M55">
+        <v>-1075.5309999999999</v>
+      </c>
+      <c r="N55">
+        <v>1843.5150000000001</v>
+      </c>
+      <c r="O55">
+        <v>4188.0439999999999</v>
+      </c>
+      <c r="P55">
+        <v>2466.66</v>
+      </c>
+      <c r="Q55">
+        <v>18.579000000000001</v>
+      </c>
+      <c r="R55">
+        <v>41727</v>
+      </c>
+      <c r="S55">
+        <v>0</v>
+      </c>
+      <c r="T55">
+        <v>4493.4440000000004</v>
+      </c>
+      <c r="U55">
+        <v>72.644999999999996</v>
+      </c>
+      <c r="V55">
+        <v>-71.006</v>
+      </c>
+      <c r="W55">
+        <v>0</v>
+      </c>
+      <c r="X55">
+        <v>213.04300000000001</v>
+      </c>
+      <c r="Y55">
+        <v>0</v>
+      </c>
+      <c r="Z55">
+        <v>0</v>
+      </c>
+      <c r="AA55">
+        <v>81.081000000000003</v>
+      </c>
+    </row>
+    <row r="56" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A56" s="1">
+        <v>41818</v>
+      </c>
+      <c r="B56" t="s">
+        <v>81</v>
+      </c>
+      <c r="C56">
+        <v>152.75</v>
+      </c>
+      <c r="D56">
+        <v>2048.2469999999998</v>
+      </c>
+      <c r="E56">
+        <v>1197.627</v>
+      </c>
+      <c r="F56">
+        <v>581.56700000000001</v>
+      </c>
+      <c r="G56">
+        <v>3379.0889999999999</v>
+      </c>
+      <c r="H56">
+        <v>8881.6810000000005</v>
+      </c>
+      <c r="I56">
+        <v>711.80700000000002</v>
+      </c>
+      <c r="J56">
+        <v>1807.6089999999999</v>
+      </c>
+      <c r="K56">
+        <v>0</v>
+      </c>
+      <c r="L56">
+        <v>0</v>
+      </c>
+      <c r="M56">
+        <v>0</v>
+      </c>
+      <c r="N56">
+        <v>1872.52</v>
+      </c>
+      <c r="O56">
+        <v>4208.3810000000003</v>
+      </c>
+      <c r="P56">
+        <v>2426.8380000000002</v>
+      </c>
+      <c r="Q56">
+        <v>-2.601</v>
+      </c>
+      <c r="R56">
+        <v>41818</v>
+      </c>
+      <c r="S56">
+        <v>0</v>
+      </c>
+      <c r="T56">
+        <v>4673.3</v>
+      </c>
+      <c r="U56">
+        <v>70.043999999999997</v>
+      </c>
+      <c r="V56">
+        <v>168.88</v>
+      </c>
+      <c r="W56">
+        <v>0</v>
+      </c>
+      <c r="X56">
+        <v>-44.68</v>
+      </c>
+      <c r="Y56">
+        <v>0</v>
+      </c>
+      <c r="Z56">
+        <v>0</v>
+      </c>
+      <c r="AA56">
+        <v>152.75</v>
+      </c>
+    </row>
+    <row r="57" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A57" s="1">
+        <v>41909</v>
+      </c>
+      <c r="B57" t="s">
+        <v>82</v>
+      </c>
+      <c r="C57">
+        <v>151.26599999999999</v>
+      </c>
+      <c r="D57">
+        <v>1990.6579999999999</v>
+      </c>
+      <c r="E57">
+        <v>1148.56</v>
+      </c>
+      <c r="F57">
+        <v>563.68299999999999</v>
+      </c>
+      <c r="G57">
+        <v>3368.8139999999999</v>
+      </c>
+      <c r="H57">
+        <v>8701.4599999999991</v>
+      </c>
+      <c r="I57">
+        <v>715.09900000000005</v>
+      </c>
+      <c r="J57">
+        <v>1806.8209999999999</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="M57">
+        <v>0</v>
+      </c>
+      <c r="N57">
+        <v>1831.357</v>
+      </c>
+      <c r="O57">
+        <v>4124.942</v>
+      </c>
+      <c r="P57">
+        <v>2390.3159999999998</v>
+      </c>
+      <c r="Q57">
+        <v>35.524999999999999</v>
+      </c>
+      <c r="R57">
+        <v>41909</v>
+      </c>
+      <c r="S57">
+        <v>0</v>
+      </c>
+      <c r="T57">
+        <v>4576.518</v>
+      </c>
+      <c r="U57">
+        <v>105.569</v>
+      </c>
+      <c r="V57">
+        <v>225.54900000000001</v>
+      </c>
+      <c r="W57">
+        <v>0</v>
+      </c>
+      <c r="X57">
+        <v>-41.776000000000003</v>
+      </c>
+      <c r="Y57">
+        <v>0</v>
+      </c>
+      <c r="Z57">
+        <v>0</v>
+      </c>
+      <c r="AA57">
+        <v>151.26599999999999</v>
+      </c>
+    </row>
+    <row r="58" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A58" s="1">
+        <v>42004</v>
+      </c>
+      <c r="B58" t="s">
+        <v>83</v>
+      </c>
+      <c r="C58">
+        <v>146.86799999999999</v>
+      </c>
+      <c r="D58">
+        <v>1951.4459999999999</v>
+      </c>
+      <c r="E58">
+        <v>1008.89</v>
+      </c>
+      <c r="F58">
+        <v>553.17100000000005</v>
+      </c>
+      <c r="G58">
+        <v>2980.4859999999999</v>
+      </c>
+      <c r="H58">
+        <v>8285.5439999999999</v>
+      </c>
+      <c r="I58">
+        <v>622.36</v>
+      </c>
+      <c r="J58">
+        <v>1402.135</v>
+      </c>
+      <c r="K58">
+        <v>301.60000000000002</v>
+      </c>
+      <c r="L58">
+        <v>0</v>
+      </c>
+      <c r="M58">
+        <v>0</v>
+      </c>
+      <c r="N58">
+        <v>1946.7239999999999</v>
+      </c>
+      <c r="O58">
+        <v>3862.7310000000002</v>
+      </c>
+      <c r="P58">
+        <v>2253.44</v>
+      </c>
+      <c r="Q58">
+        <v>-7.6920000000000002</v>
+      </c>
+      <c r="R58">
+        <v>42004</v>
+      </c>
+      <c r="S58">
+        <v>32300</v>
+      </c>
+      <c r="T58">
+        <v>4422.8130000000001</v>
+      </c>
+      <c r="U58">
+        <v>97.876999999999995</v>
+      </c>
+      <c r="V58">
+        <v>338.76499999999999</v>
+      </c>
+      <c r="W58">
+        <v>0</v>
+      </c>
+      <c r="X58">
+        <v>-152.137</v>
+      </c>
+      <c r="Y58">
+        <v>0</v>
+      </c>
+      <c r="Z58">
+        <v>0</v>
+      </c>
+      <c r="AA58">
+        <v>146.86799999999999</v>
+      </c>
+    </row>
+    <row r="59" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A59" s="1">
+        <v>42098</v>
+      </c>
+      <c r="B59" t="s">
+        <v>84</v>
+      </c>
+      <c r="C59">
+        <v>22.346</v>
+      </c>
+      <c r="D59">
+        <v>1881.1769999999999</v>
+      </c>
+      <c r="E59">
+        <v>1092.626</v>
+      </c>
+      <c r="F59">
+        <v>521.91899999999998</v>
+      </c>
+      <c r="G59">
+        <v>3203.819</v>
+      </c>
+      <c r="H59">
+        <v>8284.6219999999994</v>
+      </c>
+      <c r="I59">
+        <v>634.26400000000001</v>
+      </c>
+      <c r="J59">
+        <v>606.08000000000004</v>
+      </c>
+      <c r="K59">
+        <v>657.1</v>
+      </c>
+      <c r="L59">
+        <v>-4841.7</v>
+      </c>
+      <c r="M59">
+        <v>-212.40199999999999</v>
+      </c>
+      <c r="N59">
+        <v>2891.98</v>
+      </c>
+      <c r="O59">
+        <v>4060.8270000000002</v>
+      </c>
+      <c r="P59">
+        <v>2412.2550000000001</v>
+      </c>
+      <c r="Q59">
+        <v>9.1639999999999997</v>
+      </c>
+      <c r="R59">
+        <v>42098</v>
+      </c>
+      <c r="S59">
+        <v>0</v>
+      </c>
+      <c r="T59">
+        <v>4223.7950000000001</v>
+      </c>
+      <c r="U59">
+        <v>107.041</v>
+      </c>
+      <c r="V59">
+        <v>-49.646000000000001</v>
+      </c>
+      <c r="W59">
+        <v>0</v>
+      </c>
+      <c r="X59">
+        <v>175.304</v>
+      </c>
+      <c r="Y59">
+        <v>0</v>
+      </c>
+      <c r="Z59">
+        <v>0</v>
+      </c>
+      <c r="AA59">
+        <v>22.346</v>
+      </c>
+    </row>
+    <row r="60" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A60" s="1">
+        <v>42189</v>
+      </c>
+      <c r="B60" t="s">
+        <v>85</v>
+      </c>
+      <c r="C60">
+        <v>186.49199999999999</v>
+      </c>
+      <c r="D60">
+        <v>2041.7329999999999</v>
+      </c>
+      <c r="E60">
+        <v>1316.6780000000001</v>
+      </c>
+      <c r="F60">
+        <v>627.47</v>
+      </c>
+      <c r="G60">
+        <v>3608.6219999999998</v>
+      </c>
+      <c r="H60">
+        <v>10165.67</v>
+      </c>
+      <c r="I60">
+        <v>727.67600000000004</v>
+      </c>
+      <c r="J60">
+        <v>1777.828</v>
+      </c>
+      <c r="K60">
+        <v>541</v>
+      </c>
+      <c r="L60">
+        <v>0</v>
+      </c>
+      <c r="M60">
+        <v>0</v>
+      </c>
+      <c r="N60">
+        <v>3001.5309999999999</v>
+      </c>
+      <c r="O60">
+        <v>5529.4840000000004</v>
+      </c>
+      <c r="P60">
+        <v>3475.8719999999998</v>
+      </c>
+      <c r="Q60">
+        <v>64.046000000000006</v>
+      </c>
+      <c r="R60">
+        <v>42189</v>
+      </c>
+      <c r="S60">
+        <v>0</v>
+      </c>
+      <c r="T60">
+        <v>4636.1859999999997</v>
+      </c>
+      <c r="U60">
+        <v>171.08699999999999</v>
+      </c>
+      <c r="V60">
+        <v>317.16500000000002</v>
+      </c>
+      <c r="W60">
+        <v>0</v>
+      </c>
+      <c r="X60">
+        <v>1053.836</v>
+      </c>
+      <c r="Y60">
+        <v>0</v>
+      </c>
+      <c r="Z60">
+        <v>0</v>
+      </c>
+      <c r="AA60">
+        <v>186.49199999999999</v>
+      </c>
+    </row>
+    <row r="61" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A61" s="1">
+        <v>42280</v>
+      </c>
+      <c r="B61" t="s">
+        <v>86</v>
+      </c>
+      <c r="C61">
+        <v>214.905</v>
+      </c>
+      <c r="D61">
+        <v>2150.6559999999999</v>
+      </c>
+      <c r="E61">
+        <v>1267.9269999999999</v>
+      </c>
+      <c r="F61">
+        <v>668.69500000000005</v>
+      </c>
+      <c r="G61">
+        <v>3499.194</v>
+      </c>
+      <c r="H61">
+        <v>10064.482</v>
+      </c>
+      <c r="I61">
+        <v>771.00599999999997</v>
+      </c>
+      <c r="J61">
+        <v>1263.1759999999999</v>
+      </c>
+      <c r="K61">
+        <v>702.27200000000005</v>
+      </c>
+      <c r="L61">
+        <v>0</v>
+      </c>
+      <c r="M61">
+        <v>0</v>
+      </c>
+      <c r="N61">
+        <v>3299.7840000000001</v>
+      </c>
+      <c r="O61">
+        <v>5286.4489999999996</v>
+      </c>
+      <c r="P61">
+        <v>3190.991</v>
+      </c>
+      <c r="Q61">
+        <v>-60.371000000000002</v>
+      </c>
+      <c r="R61">
+        <v>42280</v>
+      </c>
+      <c r="S61">
+        <v>0</v>
+      </c>
+      <c r="T61">
+        <v>4778.0330000000004</v>
+      </c>
+      <c r="U61">
+        <v>110.71599999999999</v>
+      </c>
+      <c r="V61">
+        <v>389.43299999999999</v>
+      </c>
+      <c r="W61">
+        <v>0</v>
+      </c>
+      <c r="X61">
+        <v>-298.63400000000001</v>
+      </c>
+      <c r="Y61">
+        <v>0</v>
+      </c>
+      <c r="Z61">
+        <v>0</v>
+      </c>
+      <c r="AA61">
+        <v>214.905</v>
+      </c>
+    </row>
+    <row r="62" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A62" s="1">
+        <v>42369</v>
+      </c>
+      <c r="B62" t="s">
+        <v>87</v>
+      </c>
+      <c r="C62">
+        <v>191.559</v>
+      </c>
+      <c r="D62">
+        <v>1997.9970000000001</v>
+      </c>
+      <c r="E62">
+        <v>1164.586</v>
+      </c>
+      <c r="F62">
+        <v>651.45500000000004</v>
+      </c>
+      <c r="G62">
+        <v>3249.9720000000002</v>
+      </c>
+      <c r="H62">
+        <v>9934.4</v>
+      </c>
+      <c r="I62">
+        <v>696.97400000000005</v>
+      </c>
+      <c r="J62">
+        <v>1188.9639999999999</v>
+      </c>
+      <c r="K62">
+        <v>756.86699999999996</v>
+      </c>
+      <c r="L62">
+        <v>0</v>
+      </c>
+      <c r="M62">
+        <v>0</v>
+      </c>
+      <c r="N62">
+        <v>3259.0279999999998</v>
+      </c>
+      <c r="O62">
+        <v>5051.585</v>
+      </c>
+      <c r="P62">
+        <v>3191.9670000000001</v>
+      </c>
+      <c r="Q62">
+        <v>-29.024000000000001</v>
+      </c>
+      <c r="R62">
+        <v>42369</v>
+      </c>
+      <c r="S62">
+        <v>34100</v>
+      </c>
+      <c r="T62">
+        <v>4882.8149999999996</v>
+      </c>
+      <c r="U62">
+        <v>81.691999999999993</v>
+      </c>
+      <c r="V62">
+        <v>254.92099999999999</v>
+      </c>
+      <c r="W62">
+        <v>0</v>
+      </c>
+      <c r="X62">
+        <v>33.576999999999998</v>
+      </c>
+      <c r="Y62">
+        <v>0</v>
+      </c>
+      <c r="Z62">
+        <v>0</v>
+      </c>
+      <c r="AA62">
+        <v>191.559</v>
+      </c>
+    </row>
+    <row r="63" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A63" s="1">
+        <v>42462</v>
+      </c>
+      <c r="B63" t="s">
+        <v>88</v>
+      </c>
+      <c r="C63">
+        <v>171.548</v>
+      </c>
+      <c r="D63">
+        <v>2172.0459999999998</v>
+      </c>
+      <c r="E63">
+        <v>1340.722</v>
+      </c>
+      <c r="F63">
+        <v>645.52700000000004</v>
+      </c>
+      <c r="G63">
+        <v>3470.5509999999999</v>
+      </c>
+      <c r="H63">
+        <v>10292.315000000001</v>
+      </c>
+      <c r="I63">
+        <v>751.27099999999996</v>
+      </c>
+      <c r="J63">
+        <v>1173.5999999999999</v>
+      </c>
+      <c r="K63">
+        <v>1544.855</v>
+      </c>
+      <c r="L63">
+        <v>-7048.326</v>
+      </c>
+      <c r="M63">
+        <v>-820.572</v>
+      </c>
+      <c r="N63">
+        <v>3323.6680000000001</v>
+      </c>
+      <c r="O63">
+        <v>5112.3050000000003</v>
+      </c>
+      <c r="P63">
+        <v>3249.779</v>
+      </c>
+      <c r="Q63">
+        <v>16.613</v>
+      </c>
+      <c r="R63">
+        <v>42462</v>
+      </c>
+      <c r="S63">
+        <v>0</v>
+      </c>
+      <c r="T63">
+        <v>5180.01</v>
+      </c>
+      <c r="U63">
+        <v>98.305000000000007</v>
+      </c>
+      <c r="V63">
+        <v>151.87100000000001</v>
+      </c>
+      <c r="W63">
+        <v>0</v>
+      </c>
+      <c r="X63">
+        <v>-0.23</v>
+      </c>
+      <c r="Y63">
+        <v>0</v>
+      </c>
+      <c r="Z63">
+        <v>0</v>
+      </c>
+      <c r="AA63">
+        <v>171.548</v>
+      </c>
+    </row>
+    <row r="64" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A64" s="1">
+        <v>42553</v>
+      </c>
+      <c r="B64" t="s">
+        <v>89</v>
+      </c>
+      <c r="C64">
+        <v>255.18799999999999</v>
+      </c>
+      <c r="D64">
+        <v>2310.3359999999998</v>
+      </c>
+      <c r="E64">
+        <v>1382.7909999999999</v>
+      </c>
+      <c r="F64">
+        <v>758.36599999999999</v>
+      </c>
+      <c r="G64">
+        <v>3519.203</v>
+      </c>
+      <c r="H64">
+        <v>10312.831</v>
+      </c>
+      <c r="I64">
+        <v>782.05100000000004</v>
+      </c>
+      <c r="J64">
+        <v>1160.7</v>
+      </c>
+      <c r="K64">
+        <v>1169.24</v>
+      </c>
+      <c r="L64">
+        <v>0</v>
+      </c>
+      <c r="M64">
+        <v>0</v>
+      </c>
+      <c r="N64">
+        <v>3129.7339999999999</v>
+      </c>
+      <c r="O64">
+        <v>4903.5649999999996</v>
+      </c>
+      <c r="P64">
+        <v>2956.2840000000001</v>
+      </c>
+      <c r="Q64">
+        <v>13.744</v>
+      </c>
+      <c r="R64">
+        <v>42553</v>
+      </c>
+      <c r="S64">
+        <v>0</v>
+      </c>
+      <c r="T64">
+        <v>5409.2659999999996</v>
+      </c>
+      <c r="U64">
+        <v>112.04900000000001</v>
+      </c>
+      <c r="V64">
+        <v>412.86799999999999</v>
+      </c>
+      <c r="W64">
+        <v>0</v>
+      </c>
+      <c r="X64">
+        <v>-264.43700000000001</v>
+      </c>
+      <c r="Y64">
+        <v>0</v>
+      </c>
+      <c r="Z64">
+        <v>0</v>
+      </c>
+      <c r="AA64">
+        <v>255.18799999999999</v>
+      </c>
+    </row>
+    <row r="65" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A65" s="1">
+        <v>42644</v>
+      </c>
+      <c r="B65" t="s">
+        <v>90</v>
+      </c>
+      <c r="C65">
+        <v>269.87799999999999</v>
+      </c>
+      <c r="D65">
+        <v>2294.1390000000001</v>
+      </c>
+      <c r="E65">
+        <v>1439.923</v>
+      </c>
+      <c r="F65">
+        <v>744.01800000000003</v>
+      </c>
+      <c r="G65">
+        <v>3576.3139999999999</v>
+      </c>
+      <c r="H65">
+        <v>10420.593000000001</v>
+      </c>
+      <c r="I65">
+        <v>767.24800000000005</v>
+      </c>
+      <c r="J65">
+        <v>1165.577</v>
+      </c>
+      <c r="K65">
+        <v>990.39</v>
+      </c>
+      <c r="L65">
+        <v>0</v>
+      </c>
+      <c r="M65">
+        <v>0</v>
+      </c>
+      <c r="N65">
+        <v>2983.32</v>
+      </c>
+      <c r="O65">
+        <v>4723.1639999999998</v>
+      </c>
+      <c r="P65">
+        <v>2713.828</v>
+      </c>
+      <c r="Q65">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="R65">
+        <v>42644</v>
+      </c>
+      <c r="S65">
+        <v>0</v>
+      </c>
+      <c r="T65">
+        <v>5697.4290000000001</v>
+      </c>
+      <c r="U65">
+        <v>112.108</v>
+      </c>
+      <c r="V65">
+        <v>435.60300000000001</v>
+      </c>
+      <c r="W65">
+        <v>0</v>
+      </c>
+      <c r="X65">
+        <v>-252.215</v>
+      </c>
+      <c r="Y65">
+        <v>0</v>
+      </c>
+      <c r="Z65">
+        <v>0</v>
+      </c>
+      <c r="AA65">
+        <v>269.87799999999999</v>
+      </c>
+    </row>
+    <row r="66" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A66" s="1">
+        <v>42735</v>
+      </c>
+      <c r="B66" t="s">
+        <v>91</v>
+      </c>
+      <c r="C66">
+        <v>233.74799999999999</v>
+      </c>
+      <c r="D66">
+        <v>2182.5659999999998</v>
+      </c>
+      <c r="E66">
+        <v>1307.971</v>
+      </c>
+      <c r="F66">
+        <v>703.21699999999998</v>
+      </c>
+      <c r="G66">
+        <v>3471.5120000000002</v>
+      </c>
+      <c r="H66">
+        <v>10230.596</v>
+      </c>
+      <c r="I66">
+        <v>729.41499999999996</v>
+      </c>
+      <c r="J66">
+        <v>1128.7470000000001</v>
+      </c>
+      <c r="K66">
+        <v>820.303</v>
+      </c>
+      <c r="L66">
+        <v>0</v>
+      </c>
+      <c r="M66">
+        <v>0</v>
+      </c>
+      <c r="N66">
+        <v>2718.32</v>
+      </c>
+      <c r="O66">
+        <v>4423.4129999999996</v>
+      </c>
+      <c r="P66">
+        <v>2511.4850000000001</v>
+      </c>
+      <c r="Q66">
+        <v>9.5570000000000004</v>
+      </c>
+      <c r="R66">
+        <v>42735</v>
+      </c>
+      <c r="S66">
+        <v>37800</v>
+      </c>
+      <c r="T66">
+        <v>5807.183</v>
+      </c>
+      <c r="U66">
+        <v>121.66500000000001</v>
+      </c>
+      <c r="V66">
+        <v>344.947</v>
+      </c>
+      <c r="W66">
+        <v>0</v>
+      </c>
+      <c r="X66">
+        <v>-124.754</v>
+      </c>
+      <c r="Y66">
+        <v>0</v>
+      </c>
+      <c r="Z66">
+        <v>0</v>
+      </c>
+      <c r="AA66">
+        <v>233.74799999999999</v>
+      </c>
+    </row>
+    <row r="67" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A67" s="1">
+        <v>42826</v>
+      </c>
+      <c r="B67" t="s">
+        <v>92</v>
+      </c>
+      <c r="C67">
+        <v>200.554</v>
+      </c>
+      <c r="D67">
+        <v>2220.645</v>
+      </c>
+      <c r="E67">
+        <v>1427.6869999999999</v>
+      </c>
+      <c r="F67">
+        <v>683.16499999999996</v>
+      </c>
+      <c r="G67">
+        <v>3734.982</v>
+      </c>
+      <c r="H67">
+        <v>10727.517</v>
+      </c>
+      <c r="I67">
+        <v>780.46699999999998</v>
+      </c>
+      <c r="J67">
+        <v>1132.268</v>
+      </c>
+      <c r="K67">
+        <v>1458.328</v>
+      </c>
+      <c r="L67">
+        <v>-3156.6060000000002</v>
+      </c>
+      <c r="M67">
+        <v>-685.72199999999998</v>
+      </c>
+      <c r="N67">
+        <v>2828.3270000000002</v>
+      </c>
+      <c r="O67">
+        <v>4638.4920000000002</v>
+      </c>
+      <c r="P67">
+        <v>2630.2539999999999</v>
+      </c>
+      <c r="Q67">
+        <v>66.771000000000001</v>
+      </c>
+      <c r="R67">
+        <v>42826</v>
+      </c>
+      <c r="S67">
+        <v>0</v>
+      </c>
+      <c r="T67">
+        <v>6089.0249999999996</v>
+      </c>
+      <c r="U67">
+        <v>188.43600000000001</v>
+      </c>
+      <c r="V67">
+        <v>165.88200000000001</v>
+      </c>
+      <c r="W67">
+        <v>0</v>
+      </c>
+      <c r="X67">
+        <v>90.867999999999995</v>
+      </c>
+      <c r="Y67">
+        <v>0</v>
+      </c>
+      <c r="Z67">
+        <v>0</v>
+      </c>
+      <c r="AA67">
+        <v>200.554</v>
+      </c>
+    </row>
+    <row r="68" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A68" s="1">
+        <v>42917</v>
+      </c>
+      <c r="B68" t="s">
+        <v>93</v>
+      </c>
+      <c r="C68">
+        <v>260.68099999999998</v>
+      </c>
+      <c r="D68">
+        <v>2453.038</v>
+      </c>
+      <c r="E68">
+        <v>1560.298</v>
+      </c>
+      <c r="F68">
+        <v>792.16399999999999</v>
+      </c>
+      <c r="G68">
+        <v>4010.723</v>
+      </c>
+      <c r="H68">
+        <v>11589.491</v>
+      </c>
+      <c r="I68">
+        <v>871.43799999999999</v>
+      </c>
+      <c r="J68">
+        <v>1174.44</v>
+      </c>
+      <c r="K68">
+        <v>1544.8320000000001</v>
+      </c>
+      <c r="L68">
+        <v>0</v>
+      </c>
+      <c r="M68">
+        <v>0</v>
+      </c>
+      <c r="N68">
+        <v>3220.7350000000001</v>
+      </c>
+      <c r="O68">
+        <v>5108.2849999999999</v>
+      </c>
+      <c r="P68">
+        <v>2928.5169999999998</v>
+      </c>
+      <c r="Q68">
+        <v>-58.198</v>
+      </c>
+      <c r="R68">
+        <v>42917</v>
+      </c>
+      <c r="S68">
+        <v>0</v>
+      </c>
+      <c r="T68">
+        <v>6481.2060000000001</v>
+      </c>
+      <c r="U68">
+        <v>130.238</v>
+      </c>
+      <c r="V68">
+        <v>247.99600000000001</v>
+      </c>
+      <c r="W68">
+        <v>0</v>
+      </c>
+      <c r="X68">
+        <v>166.44</v>
+      </c>
+      <c r="Y68">
+        <v>0</v>
+      </c>
+      <c r="Z68">
+        <v>0</v>
+      </c>
+      <c r="AA68">
+        <v>260.68099999999998</v>
+      </c>
+    </row>
+    <row r="69" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A69" s="1">
+        <v>43008</v>
+      </c>
+      <c r="B69" t="s">
+        <v>94</v>
+      </c>
+      <c r="C69">
+        <v>270.02499999999998</v>
+      </c>
+      <c r="D69">
+        <v>2448.5100000000002</v>
+      </c>
+      <c r="E69">
+        <v>1569.74</v>
+      </c>
+      <c r="F69">
+        <v>792.14599999999996</v>
+      </c>
+      <c r="G69">
+        <v>3997.11</v>
+      </c>
+      <c r="H69">
+        <v>11822.813</v>
+      </c>
+      <c r="I69">
+        <v>859.91300000000001</v>
+      </c>
+      <c r="J69">
+        <v>1544.665</v>
+      </c>
+      <c r="K69">
+        <v>1150.3520000000001</v>
+      </c>
+      <c r="L69">
+        <v>0</v>
+      </c>
+      <c r="M69">
+        <v>0</v>
+      </c>
+      <c r="N69">
+        <v>2697.018</v>
+      </c>
+      <c r="O69">
+        <v>4996.7030000000004</v>
+      </c>
+      <c r="P69">
+        <v>2717.4459999999999</v>
+      </c>
+      <c r="Q69">
+        <v>-45.735999999999997</v>
+      </c>
+      <c r="R69">
+        <v>43008</v>
+      </c>
+      <c r="S69">
+        <v>0</v>
+      </c>
+      <c r="T69">
+        <v>6826.11</v>
+      </c>
+      <c r="U69">
+        <v>84.501999999999995</v>
+      </c>
+      <c r="V69">
+        <v>460.34399999999999</v>
+      </c>
+      <c r="W69">
+        <v>0</v>
+      </c>
+      <c r="X69">
+        <v>-280.64499999999998</v>
+      </c>
+      <c r="Y69">
+        <v>0</v>
+      </c>
+      <c r="Z69">
+        <v>0</v>
+      </c>
+      <c r="AA69">
+        <v>270.02499999999998</v>
+      </c>
+    </row>
+    <row r="70" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A70" s="1">
+        <v>43100</v>
+      </c>
+      <c r="B70" t="s">
+        <v>95</v>
+      </c>
+      <c r="C70">
+        <v>240.37799999999999</v>
+      </c>
+      <c r="D70">
+        <v>2369.0970000000002</v>
+      </c>
+      <c r="E70">
+        <v>1452.2449999999999</v>
+      </c>
+      <c r="F70">
+        <v>778.26400000000001</v>
+      </c>
+      <c r="G70">
+        <v>4072.9670000000001</v>
+      </c>
+      <c r="H70">
+        <v>12094.852999999999</v>
+      </c>
+      <c r="I70">
+        <v>810.03399999999999</v>
+      </c>
+      <c r="J70">
+        <v>1559.895</v>
+      </c>
+      <c r="K70">
+        <v>1140.646</v>
+      </c>
+      <c r="L70">
+        <v>0</v>
+      </c>
+      <c r="M70">
+        <v>0</v>
+      </c>
+      <c r="N70">
+        <v>2655.355</v>
+      </c>
+      <c r="O70">
+        <v>4998.3810000000003</v>
+      </c>
+      <c r="P70">
+        <v>2763.578</v>
+      </c>
+      <c r="Q70">
+        <v>0.38200000000000001</v>
+      </c>
+      <c r="R70">
+        <v>43100</v>
+      </c>
+      <c r="S70">
+        <v>38800</v>
+      </c>
+      <c r="T70">
+        <v>7096.4719999999998</v>
+      </c>
+      <c r="U70">
+        <v>84.884</v>
+      </c>
+      <c r="V70">
+        <v>319.37299999999999</v>
+      </c>
+      <c r="W70">
+        <v>0</v>
+      </c>
+      <c r="X70">
+        <v>16.341999999999999</v>
+      </c>
+      <c r="Y70">
+        <v>0</v>
+      </c>
+      <c r="Z70">
+        <v>-83.903999999999996</v>
+      </c>
+      <c r="AA70">
+        <v>240.37799999999999</v>
+      </c>
+    </row>
+    <row r="71" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A71" s="1">
+        <v>43190</v>
+      </c>
+      <c r="B71" t="s">
+        <v>96</v>
+      </c>
+      <c r="C71">
+        <v>208.76599999999999</v>
+      </c>
+      <c r="D71">
+        <v>2412.2020000000002</v>
+      </c>
+      <c r="E71">
+        <v>1583.6410000000001</v>
+      </c>
+      <c r="F71">
+        <v>719.19</v>
+      </c>
+      <c r="G71">
+        <v>4297.0389999999998</v>
+      </c>
+      <c r="H71">
+        <v>12560.371999999999</v>
+      </c>
+      <c r="I71">
+        <v>897.52499999999998</v>
+      </c>
+      <c r="J71">
+        <v>1585.6510000000001</v>
+      </c>
+      <c r="K71">
+        <v>1278.3209999999999</v>
+      </c>
+      <c r="L71">
+        <v>-3983.6170000000002</v>
+      </c>
+      <c r="M71">
+        <v>-365.88900000000001</v>
+      </c>
+      <c r="N71">
+        <v>2795.91</v>
+      </c>
+      <c r="O71">
+        <v>5183.4390000000003</v>
+      </c>
+      <c r="P71">
+        <v>2917.5680000000002</v>
+      </c>
+      <c r="Q71">
+        <v>29.959</v>
+      </c>
+      <c r="R71">
+        <v>43190</v>
+      </c>
+      <c r="S71">
+        <v>0</v>
+      </c>
+      <c r="T71">
+        <v>7376.933</v>
+      </c>
+      <c r="U71">
+        <v>114.843</v>
+      </c>
+      <c r="V71">
+        <v>183.22800000000001</v>
+      </c>
+      <c r="W71">
+        <v>0</v>
+      </c>
+      <c r="X71">
+        <v>86.599000000000004</v>
+      </c>
+      <c r="Y71">
+        <v>0</v>
+      </c>
+      <c r="Z71">
+        <v>33.904000000000003</v>
+      </c>
+      <c r="AA71">
+        <v>208.76599999999999</v>
+      </c>
+    </row>
+    <row r="72" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A72" s="1">
+        <v>43281</v>
+      </c>
+      <c r="B72" t="s">
+        <v>97</v>
+      </c>
+      <c r="C72">
+        <v>196.58600000000001</v>
+      </c>
+      <c r="D72">
+        <v>2577.0140000000001</v>
+      </c>
+      <c r="E72">
+        <v>1638.607</v>
+      </c>
+      <c r="F72">
+        <v>778.57299999999998</v>
+      </c>
+      <c r="G72">
+        <v>4773.68</v>
+      </c>
+      <c r="H72">
+        <v>12894.039000000001</v>
+      </c>
+      <c r="I72">
+        <v>951.2</v>
+      </c>
+      <c r="J72">
+        <v>1884.0229999999999</v>
+      </c>
+      <c r="K72">
+        <v>1069.2080000000001</v>
+      </c>
+      <c r="L72">
+        <v>0</v>
+      </c>
+      <c r="M72">
+        <v>0</v>
+      </c>
+      <c r="N72">
+        <v>2736.0720000000001</v>
+      </c>
+      <c r="O72">
+        <v>5490.5619999999999</v>
+      </c>
+      <c r="P72">
+        <v>3030.5340000000001</v>
+      </c>
+      <c r="Q72">
+        <v>403.38299999999998</v>
+      </c>
+      <c r="R72">
+        <v>43281</v>
+      </c>
+      <c r="S72">
+        <v>0</v>
+      </c>
+      <c r="T72">
+        <v>7403.4769999999999</v>
+      </c>
+      <c r="U72">
+        <v>518.226</v>
+      </c>
+      <c r="V72">
+        <v>437.75799999999998</v>
+      </c>
+      <c r="W72">
+        <v>0</v>
+      </c>
+      <c r="X72">
+        <v>221.43</v>
+      </c>
+      <c r="Y72">
+        <v>0</v>
+      </c>
+      <c r="Z72">
+        <v>3</v>
+      </c>
+      <c r="AA72">
+        <v>196.58600000000001</v>
+      </c>
+    </row>
+    <row r="73" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A73" s="1">
+        <v>43372</v>
+      </c>
+      <c r="B73" t="s">
+        <v>98</v>
+      </c>
+      <c r="C73">
+        <v>227.01300000000001</v>
+      </c>
+      <c r="D73">
+        <v>2545.8000000000002</v>
+      </c>
+      <c r="E73">
+        <v>1645.3589999999999</v>
+      </c>
+      <c r="F73">
+        <v>730.63499999999999</v>
+      </c>
+      <c r="G73">
+        <v>4548.47</v>
+      </c>
+      <c r="H73">
+        <v>13000.925999999999</v>
+      </c>
+      <c r="I73">
+        <v>925.23800000000006</v>
+      </c>
+      <c r="J73">
+        <v>1528.5509999999999</v>
+      </c>
+      <c r="K73">
+        <v>969.52</v>
+      </c>
+      <c r="L73">
+        <v>0</v>
+      </c>
+      <c r="M73">
+        <v>0</v>
+      </c>
+      <c r="N73">
+        <v>2957.2710000000002</v>
+      </c>
+      <c r="O73">
+        <v>5397.9219999999996</v>
+      </c>
+      <c r="P73">
+        <v>2862.404</v>
+      </c>
+      <c r="Q73">
+        <v>-426.875</v>
+      </c>
+      <c r="R73">
+        <v>43372</v>
+      </c>
+      <c r="S73">
+        <v>0</v>
+      </c>
+      <c r="T73">
+        <v>7603.0039999999999</v>
+      </c>
+      <c r="U73">
+        <v>91.350999999999999</v>
+      </c>
+      <c r="V73">
+        <v>273.49900000000002</v>
+      </c>
+      <c r="W73">
+        <v>0</v>
+      </c>
+      <c r="X73">
+        <v>-156.48400000000001</v>
+      </c>
+      <c r="Y73">
+        <v>0</v>
+      </c>
+      <c r="Z73">
+        <v>3</v>
+      </c>
+      <c r="AA73">
+        <v>227.01300000000001</v>
+      </c>
+    </row>
+    <row r="74" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A74" s="1">
+        <v>43465</v>
+      </c>
+      <c r="B74" t="s">
+        <v>99</v>
+      </c>
+      <c r="C74">
+        <v>229.339</v>
+      </c>
+      <c r="D74">
+        <v>2448.6179999999999</v>
+      </c>
+      <c r="E74">
+        <v>1487.566</v>
+      </c>
+      <c r="F74">
+        <v>672.13499999999999</v>
+      </c>
+      <c r="G74">
+        <v>4509.2960000000003</v>
+      </c>
+      <c r="H74">
+        <v>13099.123</v>
+      </c>
+      <c r="I74">
+        <v>811.87900000000002</v>
+      </c>
+      <c r="J74">
+        <v>1510.431</v>
+      </c>
+      <c r="K74">
+        <v>1339.8430000000001</v>
+      </c>
+      <c r="L74">
+        <v>0</v>
+      </c>
+      <c r="M74">
+        <v>0</v>
+      </c>
+      <c r="N74">
+        <v>3266.239</v>
+      </c>
+      <c r="O74">
+        <v>5659.0640000000003</v>
+      </c>
+      <c r="P74">
+        <v>3257.9740000000002</v>
+      </c>
+      <c r="Q74">
+        <v>27.699000000000002</v>
+      </c>
+      <c r="R74">
+        <v>43465</v>
+      </c>
+      <c r="S74">
+        <v>42100</v>
+      </c>
+      <c r="T74">
+        <v>7440.0590000000002</v>
+      </c>
+      <c r="U74">
+        <v>119.05</v>
+      </c>
+      <c r="V74">
+        <v>286.85899999999998</v>
+      </c>
+      <c r="W74">
+        <v>0</v>
+      </c>
+      <c r="X74">
+        <v>46.484000000000002</v>
+      </c>
+      <c r="Y74">
+        <v>5.17</v>
+      </c>
+      <c r="Z74">
+        <v>-9.0370000000000008</v>
+      </c>
+      <c r="AA74">
+        <v>229.339</v>
+      </c>
+    </row>
+    <row r="75" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A75" s="1">
+        <v>43554</v>
+      </c>
+      <c r="B75" t="s">
+        <v>100</v>
+      </c>
+      <c r="C75">
+        <v>121.58499999999999</v>
+      </c>
+      <c r="D75">
+        <v>2442.4899999999998</v>
+      </c>
+      <c r="E75">
+        <v>1644.6189999999999</v>
+      </c>
+      <c r="F75">
+        <v>657.529</v>
+      </c>
+      <c r="G75">
+        <v>4688.9650000000001</v>
+      </c>
+      <c r="H75">
+        <v>13605.075000000001</v>
+      </c>
+      <c r="I75">
+        <v>914.20500000000004</v>
+      </c>
+      <c r="J75">
+        <v>1492.845</v>
+      </c>
+      <c r="K75">
+        <v>1405.4110000000001</v>
+      </c>
+      <c r="L75">
+        <v>-3826.3710000000001</v>
+      </c>
+      <c r="M75">
+        <v>-132.155</v>
+      </c>
+      <c r="N75">
+        <v>3434.2469999999998</v>
+      </c>
+      <c r="O75">
+        <v>6028.03</v>
+      </c>
+      <c r="P75">
+        <v>3588.5439999999999</v>
+      </c>
+      <c r="Q75">
+        <v>-13.382</v>
+      </c>
+      <c r="R75">
+        <v>43554</v>
+      </c>
+      <c r="S75">
+        <v>0</v>
+      </c>
+      <c r="T75">
+        <v>7577.0450000000001</v>
+      </c>
+      <c r="U75">
+        <v>105.66800000000001</v>
+      </c>
+      <c r="V75">
+        <v>170.137</v>
+      </c>
+      <c r="W75">
+        <v>0</v>
+      </c>
+      <c r="X75">
+        <v>26.8</v>
+      </c>
+      <c r="Y75">
+        <v>232.72499999999999</v>
+      </c>
+      <c r="Z75">
+        <v>2</v>
+      </c>
+      <c r="AA75">
+        <v>121.58499999999999</v>
+      </c>
+    </row>
+    <row r="76" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A76" s="1">
+        <v>43645</v>
+      </c>
+      <c r="B76" t="s">
+        <v>101</v>
+      </c>
+      <c r="C76">
+        <v>202.441</v>
+      </c>
+      <c r="D76">
+        <v>2584.4850000000001</v>
+      </c>
+      <c r="E76">
+        <v>1720.769</v>
+      </c>
+      <c r="F76">
+        <v>742.48500000000001</v>
+      </c>
+      <c r="G76">
+        <v>4808.317</v>
+      </c>
+      <c r="H76">
+        <v>13806.102000000001</v>
+      </c>
+      <c r="I76">
+        <v>976.23099999999999</v>
+      </c>
+      <c r="J76">
+        <v>1164.4749999999999</v>
+      </c>
+      <c r="K76">
+        <v>1179.2860000000001</v>
+      </c>
+      <c r="L76">
+        <v>0</v>
+      </c>
+      <c r="M76">
+        <v>0</v>
+      </c>
+      <c r="N76">
+        <v>3705.7910000000002</v>
+      </c>
+      <c r="O76">
+        <v>5984.5110000000004</v>
+      </c>
+      <c r="P76">
+        <v>3411.19</v>
+      </c>
+      <c r="Q76">
+        <v>22.428000000000001</v>
+      </c>
+      <c r="R76">
+        <v>43645</v>
+      </c>
+      <c r="S76">
+        <v>0</v>
+      </c>
+      <c r="T76">
+        <v>7821.5910000000003</v>
+      </c>
+      <c r="U76">
+        <v>128.096</v>
+      </c>
+      <c r="V76">
+        <v>396.19</v>
+      </c>
+      <c r="W76">
+        <v>0</v>
+      </c>
+      <c r="X76">
+        <v>-232.23599999999999</v>
+      </c>
+      <c r="Y76">
+        <v>254.858</v>
+      </c>
+      <c r="Z76">
+        <v>2</v>
+      </c>
+      <c r="AA76">
+        <v>202.441</v>
+      </c>
+    </row>
+    <row r="77" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A77" s="1">
+        <v>43736</v>
+      </c>
+      <c r="B77" t="s">
+        <v>102</v>
+      </c>
+      <c r="C77">
+        <v>155.518</v>
+      </c>
+      <c r="D77">
+        <v>2519.1849999999999</v>
+      </c>
+      <c r="E77">
+        <v>1692.9780000000001</v>
+      </c>
+      <c r="F77">
+        <v>699.15499999999997</v>
+      </c>
+      <c r="G77">
+        <v>4727.78</v>
+      </c>
+      <c r="H77">
+        <v>13392.762000000001</v>
+      </c>
+      <c r="I77">
+        <v>964.09799999999996</v>
+      </c>
+      <c r="J77">
+        <v>1472.2619999999999</v>
+      </c>
+      <c r="K77">
+        <v>932.77599999999995</v>
+      </c>
+      <c r="L77">
+        <v>0</v>
+      </c>
+      <c r="M77">
+        <v>0</v>
+      </c>
+      <c r="N77">
+        <v>3114.6990000000001</v>
+      </c>
+      <c r="O77">
+        <v>5627.4830000000002</v>
+      </c>
+      <c r="P77">
+        <v>3097.9810000000002</v>
+      </c>
+      <c r="Q77">
+        <v>-16.792999999999999</v>
+      </c>
+      <c r="R77">
+        <v>43736</v>
+      </c>
+      <c r="S77">
+        <v>0</v>
+      </c>
+      <c r="T77">
+        <v>7765.2790000000005</v>
+      </c>
+      <c r="U77">
+        <v>111.303</v>
+      </c>
+      <c r="V77">
+        <v>411.75900000000001</v>
+      </c>
+      <c r="W77">
+        <v>0</v>
+      </c>
+      <c r="X77">
+        <v>-304.87099999999998</v>
+      </c>
+      <c r="Y77">
+        <v>249.87899999999999</v>
+      </c>
+      <c r="Z77">
+        <v>4</v>
+      </c>
+      <c r="AA77">
+        <v>155.518</v>
+      </c>
+    </row>
+    <row r="78" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A78" s="1">
+        <v>43830</v>
+      </c>
+      <c r="B78" t="s">
+        <v>103</v>
+      </c>
+      <c r="C78">
+        <v>264.66699999999997</v>
+      </c>
+      <c r="D78">
+        <v>2424.5120000000002</v>
+      </c>
+      <c r="E78">
+        <v>1429.671</v>
+      </c>
+      <c r="F78">
+        <v>669.07600000000002</v>
+      </c>
+      <c r="G78">
+        <v>4429.4570000000003</v>
+      </c>
+      <c r="H78">
+        <v>13386.68</v>
+      </c>
+      <c r="I78">
+        <v>824.95600000000002</v>
+      </c>
+      <c r="J78">
+        <v>1493.174</v>
+      </c>
+      <c r="K78">
+        <v>693.94600000000003</v>
+      </c>
+      <c r="L78">
+        <v>0</v>
+      </c>
+      <c r="M78">
+        <v>0</v>
+      </c>
+      <c r="N78">
+        <v>2712.5830000000001</v>
+      </c>
+      <c r="O78">
+        <v>5260.232</v>
+      </c>
+      <c r="P78">
+        <v>2899.9859999999999</v>
+      </c>
+      <c r="Q78">
+        <v>23.481999999999999</v>
+      </c>
+      <c r="R78">
+        <v>43830</v>
+      </c>
+      <c r="S78">
+        <v>41800</v>
+      </c>
+      <c r="T78">
+        <v>8126.4480000000003</v>
+      </c>
+      <c r="U78">
+        <v>134.785</v>
+      </c>
+      <c r="V78">
+        <v>440.67500000000001</v>
+      </c>
+      <c r="W78">
+        <v>0</v>
+      </c>
+      <c r="X78">
+        <v>-279.57</v>
+      </c>
+      <c r="Y78">
+        <v>253.369</v>
+      </c>
+      <c r="Z78">
+        <v>2.5</v>
+      </c>
+      <c r="AA78">
+        <v>264.66699999999997</v>
+      </c>
+    </row>
+    <row r="79" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A79" s="1">
+        <v>43918</v>
+      </c>
+      <c r="B79" t="s">
+        <v>104</v>
+      </c>
+      <c r="C79">
+        <v>110.514</v>
+      </c>
+      <c r="D79">
+        <v>2285.7629999999999</v>
+      </c>
+      <c r="E79">
+        <v>1546.78</v>
+      </c>
+      <c r="F79">
+        <v>628.22199999999998</v>
+      </c>
+      <c r="G79">
+        <v>4613.0309999999999</v>
+      </c>
+      <c r="H79">
+        <v>13256.941999999999</v>
+      </c>
+      <c r="I79">
+        <v>899.178</v>
+      </c>
+      <c r="J79">
+        <v>1488.3889999999999</v>
+      </c>
+      <c r="K79">
+        <v>305.89999999999998</v>
+      </c>
+      <c r="L79">
+        <v>-3647.0839999999998</v>
+      </c>
+      <c r="M79">
+        <v>-66.468999999999994</v>
+      </c>
+      <c r="N79">
+        <v>2871.2829999999999</v>
+      </c>
+      <c r="O79">
+        <v>5409.299</v>
+      </c>
+      <c r="P79">
+        <v>3070.0279999999998</v>
+      </c>
+      <c r="Q79">
+        <v>128.30099999999999</v>
+      </c>
+      <c r="R79">
+        <v>43918</v>
+      </c>
+      <c r="S79">
+        <v>0</v>
+      </c>
+      <c r="T79">
+        <v>7847.643</v>
+      </c>
+      <c r="U79">
+        <v>263.08600000000001</v>
+      </c>
+      <c r="V79">
+        <v>194.97399999999999</v>
+      </c>
+      <c r="W79">
+        <v>0</v>
+      </c>
+      <c r="X79">
+        <v>87.200999999999993</v>
+      </c>
+      <c r="Y79">
+        <v>264.44099999999997</v>
+      </c>
+      <c r="Z79">
+        <v>-17.8</v>
+      </c>
+      <c r="AA79">
+        <v>110.514</v>
+      </c>
+    </row>
+    <row r="80" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A80" s="1">
+        <v>44009</v>
+      </c>
+      <c r="B80" t="s">
+        <v>105</v>
+      </c>
+      <c r="C80">
+        <v>-48.256999999999998</v>
+      </c>
+      <c r="D80">
+        <v>2049.8000000000002</v>
+      </c>
+      <c r="E80">
+        <v>1484.2380000000001</v>
+      </c>
+      <c r="F80">
+        <v>420.01</v>
+      </c>
+      <c r="G80">
+        <v>4745.9979999999996</v>
+      </c>
+      <c r="H80">
+        <v>13369.404</v>
+      </c>
+      <c r="I80">
+        <v>845.25699999999995</v>
+      </c>
+      <c r="J80">
+        <v>2546.0909999999999</v>
+      </c>
+      <c r="K80">
+        <v>129.63499999999999</v>
+      </c>
+      <c r="L80">
+        <v>0</v>
+      </c>
+      <c r="M80">
+        <v>0</v>
+      </c>
+      <c r="N80">
+        <v>1872.23</v>
+      </c>
+      <c r="O80">
+        <v>5444.54</v>
+      </c>
+      <c r="P80">
+        <v>3053.3560000000002</v>
+      </c>
+      <c r="Q80">
+        <v>474.62599999999998</v>
+      </c>
+      <c r="R80">
+        <v>44009</v>
+      </c>
+      <c r="S80">
+        <v>0</v>
+      </c>
+      <c r="T80">
+        <v>7924.8639999999996</v>
+      </c>
+      <c r="U80">
+        <v>737.71199999999999</v>
+      </c>
+      <c r="V80">
+        <v>568.52099999999996</v>
+      </c>
+      <c r="W80">
+        <v>0</v>
+      </c>
+      <c r="X80">
+        <v>-24.231999999999999</v>
+      </c>
+      <c r="Y80">
+        <v>253.619</v>
+      </c>
+      <c r="Z80">
+        <v>3.6</v>
+      </c>
+      <c r="AA80">
+        <v>-48.256999999999998</v>
+      </c>
+    </row>
+    <row r="81" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A81" s="1">
+        <v>44100</v>
+      </c>
+      <c r="B81" t="s">
+        <v>106</v>
+      </c>
+      <c r="C81">
+        <v>205.11699999999999</v>
+      </c>
+      <c r="D81">
+        <v>2574.87</v>
+      </c>
+      <c r="E81">
+        <v>1614.664</v>
+      </c>
+      <c r="F81">
+        <v>723.90899999999999</v>
+      </c>
+      <c r="G81">
+        <v>5151.9870000000001</v>
+      </c>
+      <c r="H81">
+        <v>13784.214</v>
+      </c>
+      <c r="I81">
+        <v>989.88</v>
+      </c>
+      <c r="J81">
+        <v>2251.0340000000001</v>
+      </c>
+      <c r="K81">
+        <v>0</v>
+      </c>
+      <c r="L81">
+        <v>0</v>
+      </c>
+      <c r="M81">
+        <v>0</v>
+      </c>
+      <c r="N81">
+        <v>2387.114</v>
+      </c>
+      <c r="O81">
+        <v>5617.1450000000004</v>
+      </c>
+      <c r="P81">
+        <v>2951.3429999999998</v>
+      </c>
+      <c r="Q81">
+        <v>43.526000000000003</v>
+      </c>
+      <c r="R81">
+        <v>44100</v>
+      </c>
+      <c r="S81">
+        <v>0</v>
+      </c>
+      <c r="T81">
+        <v>8167.0690000000004</v>
+      </c>
+      <c r="U81">
+        <v>781.23800000000006</v>
+      </c>
+      <c r="V81">
+        <v>598.49900000000002</v>
+      </c>
+      <c r="W81">
+        <v>0</v>
+      </c>
+      <c r="X81">
+        <v>-132.00800000000001</v>
+      </c>
+      <c r="Y81">
+        <v>246.40100000000001</v>
+      </c>
+      <c r="Z81">
+        <v>-351.084</v>
+      </c>
+      <c r="AA81">
+        <v>205.11699999999999</v>
+      </c>
+    </row>
+    <row r="82" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A82" s="1">
+        <v>44196</v>
+      </c>
+      <c r="B82" t="s">
+        <v>107</v>
+      </c>
+      <c r="C82">
         <v>248.221</v>
       </c>
-      <c r="D42">
+      <c r="D82">
         <v>2641.7640000000001</v>
       </c>
-      <c r="E42">
+      <c r="E82">
         <v>1507.8209999999999</v>
       </c>
-      <c r="F42">
+      <c r="F82">
         <v>760.93100000000004</v>
       </c>
-      <c r="G42">
+      <c r="G82">
         <v>5363.6540000000005</v>
       </c>
-      <c r="H42">
+      <c r="H82">
         <v>14327.751</v>
       </c>
-      <c r="I42">
+      <c r="I82">
         <v>1016.897</v>
       </c>
-      <c r="J42">
+      <c r="J82">
         <v>2318.7890000000002</v>
       </c>
-      <c r="K42">
-        <v>0</v>
-      </c>
-      <c r="L42">
-        <v>0</v>
-      </c>
-      <c r="M42">
-        <v>0</v>
-      </c>
-      <c r="N42">
+      <c r="K82">
+        <v>0</v>
+      </c>
+      <c r="L82">
+        <v>0</v>
+      </c>
+      <c r="M82">
+        <v>0</v>
+      </c>
+      <c r="N82">
         <v>2371.248</v>
       </c>
-      <c r="O42">
+      <c r="O82">
         <v>5786.5929999999998</v>
       </c>
-      <c r="P42">
+      <c r="P82">
         <v>3066.91</v>
       </c>
-      <c r="Q42">
+      <c r="Q82">
         <v>-12.613</v>
       </c>
-      <c r="R42">
+      <c r="R82">
         <v>44196</v>
       </c>
-      <c r="S42">
+      <c r="S82">
         <v>42000</v>
       </c>
-      <c r="T42">
+      <c r="T82">
         <v>8541.1579999999994</v>
       </c>
-      <c r="U42">
+      <c r="U82">
         <v>768.625</v>
       </c>
-      <c r="V42">
+      <c r="V82">
         <v>407.84500000000003</v>
       </c>
-      <c r="W42">
-        <v>0</v>
-      </c>
-      <c r="X42">
+      <c r="W82">
+        <v>0</v>
+      </c>
+      <c r="X82">
         <v>-119.146</v>
       </c>
-      <c r="Y42">
+      <c r="Y82">
         <v>272.82400000000001</v>
       </c>
-      <c r="Z42">
+      <c r="Z82">
         <v>-163.95699999999999</v>
       </c>
-      <c r="AA42">
+      <c r="AA82">
         <v>248.221</v>
       </c>
     </row>
